--- a/excel_sources/National par direction/AN/F_12_1666 et 1667/Exportations/Bordeaux final.xlsx
+++ b/excel_sources/National par direction/AN/F_12_1666 et 1667/Exportations/Bordeaux final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bordeaux" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="350">
   <si>
     <t>Entré par</t>
   </si>
@@ -476,26 +476,7 @@
     <t>Petites Isles, Lorient, Dunkerque et Bayonne</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Fruits ; secs ; prunes ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>daute</t>
-    </r>
+    <t>Fruits ; secs ; prunes ; daute</t>
   </si>
   <si>
     <t>Petites Isles, Lorient et Dunkerquer</t>
@@ -861,26 +842,7 @@
     <t>Aunis</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Verre ; en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>dame jeannes</t>
-    </r>
+    <t>Verre ; en dame jeannes</t>
   </si>
   <si>
     <t>Boulonais</t>
@@ -1015,48 +977,10 @@
     <t>Sedan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>cosinis</t>
-    </r>
+    <t>Drap ; cosinis</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ratine</t>
-    </r>
+    <t>Drap ; ratine</t>
   </si>
   <si>
     <t>Draperie ; petite</t>
@@ -1065,26 +989,7 @@
     <t>Touraine</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>calmouk</t>
-    </r>
+    <t>Drap ; calmouk</t>
   </si>
   <si>
     <t>Drogues ; médicinales ; diverses</t>
@@ -1108,26 +1013,7 @@
     <t>Drogues ; pour la peinture et teinture ; pastel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drogues ; pour la peinture et teinture ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t>Drogues ; pour la peinture et teinture ; ?</t>
   </si>
   <si>
     <t>Drogues ; pour la peinture et teinture ; tartre blanc</t>
@@ -1163,7 +1049,7 @@
     <t>Pays ou Région</t>
   </si>
   <si>
-    <t>Valeur en décimales de livress tournois</t>
+    <t>Valeur en livres tournois</t>
   </si>
   <si>
     <t>Quantité</t>
@@ -1181,70 +1067,10 @@
     <t>Remarques</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>cosinus</t>
-    </r>
+    <t>Drap ; calmouck</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ratina</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Drap ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t>Drogues ; pour la peinture et teinture ; Pae… ?</t>
   </si>
 </sst>
 </file>
@@ -1253,14 +1079,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1321,6 +1147,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1406,7 +1239,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1418,19 +1251,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1450,7 +1283,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1458,7 +1291,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1482,7 +1315,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1490,7 +1327,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1498,15 +1335,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1518,24 +1351,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1550,7 +1379,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1558,11 +1387,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1570,12 +1399,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1587,7 +1420,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1595,16 +1428,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1639,7 +1462,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1660,7 +1483,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
@@ -1699,29 +1522,29 @@
   </sheetPr>
   <dimension ref="A1:T723"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O115" activeCellId="0" sqref="O115"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A244" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F721" activeCellId="0" sqref="F721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.924882629108"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.6056338028169"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.4976525821596"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.73239436619718"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4976525821596"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.32394366197183"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.16901408450704"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.169014084507"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68075117370892"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.7370892018779"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.8169014084507"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7370892018779"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.48826291079812"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.32394366197183"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1924882629108"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0704225352113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="38.6995305164319"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.32394366197183"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.65727699530516"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.4131455399061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.32394366197183"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="12.1643192488263"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.3661971830986"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5399061032864"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.6431924882629"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="39.3427230046948"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.48826291079812"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.81220657276995"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6619718309859"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.48826291079812"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="12.3286384976526"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.7136150234742"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.6338028169014"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13409,7 +13232,7 @@
       <c r="J210" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K210" s="11" t="s">
+      <c r="K210" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L210" s="12" t="s">
@@ -13467,7 +13290,7 @@
       <c r="J211" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K211" s="11" t="s">
+      <c r="K211" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L211" s="12" t="s">
@@ -13525,7 +13348,7 @@
       <c r="J212" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K212" s="11" t="s">
+      <c r="K212" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L212" s="4" t="s">
@@ -13583,7 +13406,7 @@
       <c r="J213" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K213" s="11" t="s">
+      <c r="K213" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L213" s="12" t="s">
@@ -13641,7 +13464,7 @@
       <c r="J214" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K214" s="11" t="s">
+      <c r="K214" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L214" s="4" t="s">
@@ -13699,7 +13522,7 @@
       <c r="J215" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K215" s="11" t="s">
+      <c r="K215" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L215" s="4" t="s">
@@ -13757,7 +13580,7 @@
       <c r="J216" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K216" s="11" t="s">
+      <c r="K216" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L216" s="4" t="s">
@@ -13815,7 +13638,7 @@
       <c r="J217" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K217" s="11" t="s">
+      <c r="K217" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L217" s="12" t="s">
@@ -13873,7 +13696,7 @@
       <c r="J218" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K218" s="11" t="s">
+      <c r="K218" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L218" s="12" t="s">
@@ -13931,7 +13754,7 @@
       <c r="J219" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K219" s="11" t="s">
+      <c r="K219" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L219" s="12" t="s">
@@ -13989,7 +13812,7 @@
       <c r="J220" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K220" s="11" t="s">
+      <c r="K220" s="20" t="s">
         <v>151</v>
       </c>
       <c r="L220" s="4" t="s">
@@ -20450,7 +20273,7 @@
       <c r="P334" s="17" t="n">
         <v>10080</v>
       </c>
-      <c r="Q334" s="20" t="s">
+      <c r="Q334" s="21" t="s">
         <v>81</v>
       </c>
       <c r="R334" s="15" t="n">
@@ -30695,7 +30518,7 @@
       <c r="J519" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="K519" s="11" t="s">
+      <c r="K519" s="20" t="s">
         <v>273</v>
       </c>
       <c r="L519" s="12" t="s">
@@ -30753,7 +30576,7 @@
       <c r="J520" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="K520" s="11" t="s">
+      <c r="K520" s="20" t="s">
         <v>273</v>
       </c>
       <c r="L520" s="12" t="s">
@@ -31038,10 +30861,10 @@
       <c r="L525" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M525" s="21" t="n">
+      <c r="M525" s="22" t="n">
         <v>44301</v>
       </c>
-      <c r="N525" s="21" t="n">
+      <c r="N525" s="22" t="n">
         <v>2551780</v>
       </c>
       <c r="O525" s="9" t="s">
@@ -31096,10 +30919,10 @@
       <c r="L526" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="M526" s="21" t="n">
+      <c r="M526" s="22" t="n">
         <v>14.7465277777778</v>
       </c>
-      <c r="N526" s="21" t="n">
+      <c r="N526" s="22" t="n">
         <v>850</v>
       </c>
       <c r="O526" s="9" t="s">
@@ -31154,10 +30977,10 @@
       <c r="L527" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M527" s="21" t="n">
+      <c r="M527" s="22" t="n">
         <v>9627.76041666667</v>
       </c>
-      <c r="N527" s="21" t="n">
+      <c r="N527" s="22" t="n">
         <v>2772790</v>
       </c>
       <c r="O527" s="9" t="s">
@@ -31502,10 +31325,10 @@
       <c r="L533" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M533" s="21" t="n">
+      <c r="M533" s="22" t="n">
         <v>3127.63888888889</v>
       </c>
-      <c r="N533" s="21" t="n">
+      <c r="N533" s="22" t="n">
         <v>180150</v>
       </c>
       <c r="O533" s="9" t="s">
@@ -31734,10 +31557,10 @@
       <c r="L537" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M537" s="21" t="n">
+      <c r="M537" s="22" t="n">
         <v>9139.72916666667</v>
       </c>
-      <c r="N537" s="21" t="n">
+      <c r="N537" s="22" t="n">
         <v>1097250</v>
       </c>
       <c r="O537" s="9" t="s">
@@ -32140,10 +31963,10 @@
       <c r="L544" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M544" s="21" t="n">
+      <c r="M544" s="22" t="n">
         <v>2142.95833333333</v>
       </c>
-      <c r="N544" s="21" t="n">
+      <c r="N544" s="22" t="n">
         <v>123585</v>
       </c>
       <c r="O544" s="9" t="s">
@@ -32198,10 +32021,10 @@
       <c r="L545" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M545" s="21" t="n">
+      <c r="M545" s="22" t="n">
         <v>562.368055555556</v>
       </c>
-      <c r="N545" s="21" t="n">
+      <c r="N545" s="22" t="n">
         <v>161982</v>
       </c>
       <c r="O545" s="9" t="s">
@@ -32430,10 +32253,10 @@
       <c r="L549" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M549" s="21" t="n">
+      <c r="M549" s="22" t="n">
         <v>407.534722222222</v>
       </c>
-      <c r="N549" s="21" t="n">
+      <c r="N549" s="22" t="n">
         <v>24050</v>
       </c>
       <c r="O549" s="9" t="s">
@@ -32546,10 +32369,10 @@
       <c r="L551" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M551" s="21" t="n">
+      <c r="M551" s="22" t="n">
         <v>2331.54861111111</v>
       </c>
-      <c r="N551" s="21" t="n">
+      <c r="N551" s="22" t="n">
         <v>128940</v>
       </c>
       <c r="O551" s="9" t="s">
@@ -33857,29 +33680,29 @@
       <c r="K574" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L574" s="22" t="s">
+      <c r="L574" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M574" s="23" t="n">
+      <c r="M574" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="N574" s="23" t="n">
+      <c r="N574" s="24" t="n">
         <v>100</v>
       </c>
       <c r="O574" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P574" s="9"/>
-      <c r="Q574" s="24" t="s">
+      <c r="Q574" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R574" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S574" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T574" s="26"/>
+      <c r="S574" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T574" s="8"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="n">
@@ -33911,29 +33734,29 @@
       <c r="K575" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L575" s="22" t="s">
+      <c r="L575" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M575" s="23" t="n">
+      <c r="M575" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="N575" s="23" t="n">
+      <c r="N575" s="24" t="n">
         <v>200</v>
       </c>
       <c r="O575" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P575" s="9"/>
-      <c r="Q575" s="24" t="s">
+      <c r="Q575" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R575" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S575" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T575" s="26"/>
+      <c r="S575" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T575" s="8"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="n">
@@ -33965,29 +33788,29 @@
       <c r="K576" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L576" s="22" t="s">
+      <c r="L576" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M576" s="23" t="n">
+      <c r="M576" s="24" t="n">
         <v>182</v>
       </c>
-      <c r="N576" s="23" t="n">
+      <c r="N576" s="24" t="n">
         <v>91</v>
       </c>
       <c r="O576" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P576" s="9"/>
-      <c r="Q576" s="24" t="s">
+      <c r="Q576" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R576" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S576" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T576" s="26"/>
+      <c r="S576" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T576" s="8"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="n">
@@ -34019,29 +33842,29 @@
       <c r="K577" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L577" s="22" t="s">
+      <c r="L577" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M577" s="23" t="n">
+      <c r="M577" s="24" t="n">
         <v>1392</v>
       </c>
-      <c r="N577" s="23" t="n">
+      <c r="N577" s="24" t="n">
         <v>696</v>
       </c>
       <c r="O577" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P577" s="9"/>
-      <c r="Q577" s="24" t="s">
+      <c r="Q577" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R577" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S577" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T577" s="26"/>
+      <c r="S577" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T577" s="8"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="n">
@@ -34073,29 +33896,29 @@
       <c r="K578" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L578" s="22" t="s">
+      <c r="L578" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M578" s="23" t="n">
+      <c r="M578" s="24" t="n">
         <v>42920</v>
       </c>
-      <c r="N578" s="23" t="n">
+      <c r="N578" s="24" t="n">
         <v>21460</v>
       </c>
       <c r="O578" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P578" s="9"/>
-      <c r="Q578" s="24" t="s">
+      <c r="Q578" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R578" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S578" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T578" s="26"/>
+      <c r="S578" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T578" s="8"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="n">
@@ -34127,29 +33950,29 @@
       <c r="K579" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L579" s="22" t="s">
+      <c r="L579" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M579" s="23" t="n">
+      <c r="M579" s="24" t="n">
         <v>121.5</v>
       </c>
-      <c r="N579" s="23" t="n">
+      <c r="N579" s="24" t="n">
         <v>45</v>
       </c>
       <c r="O579" s="9" t="s">
         <v>117</v>
       </c>
       <c r="P579" s="9"/>
-      <c r="Q579" s="24" t="s">
+      <c r="Q579" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R579" s="14" t="n">
         <v>2.7</v>
       </c>
-      <c r="S579" s="25" t="n">
+      <c r="S579" s="26" t="n">
         <v>-0.500000000000014</v>
       </c>
-      <c r="T579" s="26"/>
+      <c r="T579" s="8"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="n">
@@ -34181,29 +34004,29 @@
       <c r="K580" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L580" s="22" t="s">
+      <c r="L580" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M580" s="23" t="n">
+      <c r="M580" s="24" t="n">
         <v>121.5</v>
       </c>
-      <c r="N580" s="23" t="n">
+      <c r="N580" s="24" t="n">
         <v>45</v>
       </c>
       <c r="O580" s="9" t="s">
         <v>117</v>
       </c>
       <c r="P580" s="9"/>
-      <c r="Q580" s="24" t="s">
+      <c r="Q580" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R580" s="14" t="n">
         <v>2.7</v>
       </c>
-      <c r="S580" s="25" t="n">
+      <c r="S580" s="26" t="n">
         <v>-0.500000000000014</v>
       </c>
-      <c r="T580" s="26"/>
+      <c r="T580" s="8"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="n">
@@ -34235,29 +34058,29 @@
       <c r="K581" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L581" s="22" t="s">
+      <c r="L581" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M581" s="23" t="n">
+      <c r="M581" s="24" t="n">
         <v>153</v>
       </c>
-      <c r="N581" s="23" t="n">
+      <c r="N581" s="24" t="n">
         <v>102</v>
       </c>
       <c r="O581" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P581" s="9"/>
-      <c r="Q581" s="24" t="s">
+      <c r="Q581" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R581" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S581" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T581" s="26" t="s">
+      <c r="S581" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T581" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -34291,29 +34114,29 @@
       <c r="K582" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L582" s="22" t="s">
+      <c r="L582" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M582" s="23" t="n">
+      <c r="M582" s="24" t="n">
         <v>337.5</v>
       </c>
-      <c r="N582" s="23" t="n">
+      <c r="N582" s="24" t="n">
         <v>225</v>
       </c>
       <c r="O582" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P582" s="9"/>
-      <c r="Q582" s="24" t="s">
+      <c r="Q582" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R582" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S582" s="25" t="n">
+      <c r="S582" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T582" s="26" t="s">
+      <c r="T582" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -34347,29 +34170,29 @@
       <c r="K583" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L583" s="22" t="s">
+      <c r="L583" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M583" s="23" t="n">
+      <c r="M583" s="24" t="n">
         <v>181.5</v>
       </c>
-      <c r="N583" s="23" t="n">
+      <c r="N583" s="24" t="n">
         <v>121</v>
       </c>
       <c r="O583" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P583" s="9"/>
-      <c r="Q583" s="24" t="s">
+      <c r="Q583" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R583" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S583" s="25" t="n">
+      <c r="S583" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T583" s="26"/>
+      <c r="T583" s="8"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="n">
@@ -34401,29 +34224,29 @@
       <c r="K584" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L584" s="22" t="s">
+      <c r="L584" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="M584" s="23" t="n">
+      <c r="M584" s="24" t="n">
         <v>165</v>
       </c>
-      <c r="N584" s="23" t="n">
+      <c r="N584" s="24" t="n">
         <v>110</v>
       </c>
       <c r="O584" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P584" s="9"/>
-      <c r="Q584" s="24" t="s">
+      <c r="Q584" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R584" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S584" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T584" s="26"/>
+      <c r="S584" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T584" s="8"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="n">
@@ -34455,29 +34278,29 @@
       <c r="K585" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L585" s="22" t="s">
+      <c r="L585" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M585" s="23" t="n">
+      <c r="M585" s="24" t="n">
         <v>7462.5</v>
       </c>
-      <c r="N585" s="23" t="n">
+      <c r="N585" s="24" t="n">
         <v>4975</v>
       </c>
       <c r="O585" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P585" s="9"/>
-      <c r="Q585" s="24" t="s">
+      <c r="Q585" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R585" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S585" s="25" t="n">
+      <c r="S585" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T585" s="26"/>
+      <c r="T585" s="8"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="n">
@@ -34509,29 +34332,29 @@
       <c r="K586" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L586" s="22" t="s">
+      <c r="L586" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M586" s="23" t="n">
+      <c r="M586" s="24" t="n">
         <v>2206.5</v>
       </c>
-      <c r="N586" s="23" t="n">
+      <c r="N586" s="24" t="n">
         <v>1471</v>
       </c>
       <c r="O586" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P586" s="9"/>
-      <c r="Q586" s="24" t="s">
+      <c r="Q586" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R586" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S586" s="25" t="n">
+      <c r="S586" s="26" t="n">
         <v>9.5</v>
       </c>
-      <c r="T586" s="26"/>
+      <c r="T586" s="8"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="n">
@@ -34563,29 +34386,29 @@
       <c r="K587" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L587" s="22" t="s">
+      <c r="L587" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M587" s="23" t="n">
+      <c r="M587" s="24" t="n">
         <v>3537</v>
       </c>
-      <c r="N587" s="23" t="n">
+      <c r="N587" s="24" t="n">
         <v>2358</v>
       </c>
       <c r="O587" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P587" s="9"/>
-      <c r="Q587" s="24" t="s">
+      <c r="Q587" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R587" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S587" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T587" s="26"/>
+      <c r="S587" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T587" s="8"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="n">
@@ -34617,29 +34440,29 @@
       <c r="K588" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L588" s="22" t="s">
+      <c r="L588" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M588" s="23" t="n">
+      <c r="M588" s="24" t="n">
         <v>208.5</v>
       </c>
-      <c r="N588" s="23" t="n">
+      <c r="N588" s="24" t="n">
         <v>139</v>
       </c>
       <c r="O588" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P588" s="9"/>
-      <c r="Q588" s="24" t="s">
+      <c r="Q588" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R588" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S588" s="25" t="n">
+      <c r="S588" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T588" s="26"/>
+      <c r="T588" s="8"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="n">
@@ -34671,29 +34494,29 @@
       <c r="K589" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L589" s="22" t="s">
+      <c r="L589" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M589" s="23" t="n">
+      <c r="M589" s="24" t="n">
         <v>1456.5</v>
       </c>
-      <c r="N589" s="23" t="n">
+      <c r="N589" s="24" t="n">
         <v>971</v>
       </c>
       <c r="O589" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P589" s="9"/>
-      <c r="Q589" s="24" t="s">
+      <c r="Q589" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R589" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S589" s="25" t="n">
+      <c r="S589" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T589" s="26"/>
+      <c r="T589" s="8"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="n">
@@ -34725,29 +34548,29 @@
       <c r="K590" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L590" s="22" t="s">
+      <c r="L590" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M590" s="23" t="n">
+      <c r="M590" s="24" t="n">
         <v>307.5</v>
       </c>
-      <c r="N590" s="23" t="n">
+      <c r="N590" s="24" t="n">
         <v>205</v>
       </c>
       <c r="O590" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P590" s="9"/>
-      <c r="Q590" s="24" t="s">
+      <c r="Q590" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R590" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S590" s="25" t="n">
+      <c r="S590" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T590" s="26"/>
+      <c r="T590" s="8"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="n">
@@ -34779,29 +34602,29 @@
       <c r="K591" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L591" s="22" t="s">
+      <c r="L591" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M591" s="23" t="n">
+      <c r="M591" s="24" t="n">
         <v>1252.5</v>
       </c>
-      <c r="N591" s="23" t="n">
+      <c r="N591" s="24" t="n">
         <v>835</v>
       </c>
       <c r="O591" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P591" s="9"/>
-      <c r="Q591" s="24" t="s">
+      <c r="Q591" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R591" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S591" s="25" t="n">
+      <c r="S591" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T591" s="26"/>
+      <c r="T591" s="8"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="n">
@@ -34833,29 +34656,29 @@
       <c r="K592" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L592" s="22" t="s">
+      <c r="L592" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M592" s="23" t="n">
+      <c r="M592" s="24" t="n">
         <v>1084.5</v>
       </c>
-      <c r="N592" s="23" t="n">
+      <c r="N592" s="24" t="n">
         <v>723</v>
       </c>
       <c r="O592" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P592" s="9"/>
-      <c r="Q592" s="24" t="s">
+      <c r="Q592" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R592" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S592" s="25" t="n">
+      <c r="S592" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T592" s="26"/>
+      <c r="T592" s="8"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="n">
@@ -34887,29 +34710,29 @@
       <c r="K593" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L593" s="22" t="s">
+      <c r="L593" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M593" s="23" t="n">
+      <c r="M593" s="24" t="n">
         <v>1012.5</v>
       </c>
-      <c r="N593" s="23" t="n">
+      <c r="N593" s="24" t="n">
         <v>675</v>
       </c>
       <c r="O593" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P593" s="9"/>
-      <c r="Q593" s="24" t="s">
+      <c r="Q593" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R593" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S593" s="25" t="n">
+      <c r="S593" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T593" s="26"/>
+      <c r="T593" s="8"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="n">
@@ -34941,29 +34764,29 @@
       <c r="K594" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L594" s="22" t="s">
+      <c r="L594" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M594" s="23" t="n">
+      <c r="M594" s="24" t="n">
         <v>1250</v>
       </c>
-      <c r="N594" s="23" t="n">
+      <c r="N594" s="24" t="n">
         <v>25</v>
       </c>
       <c r="O594" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P594" s="9"/>
-      <c r="Q594" s="24" t="s">
+      <c r="Q594" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R594" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S594" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T594" s="26"/>
+      <c r="S594" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T594" s="8"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="n">
@@ -34995,29 +34818,29 @@
       <c r="K595" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L595" s="22" t="s">
+      <c r="L595" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M595" s="23" t="n">
+      <c r="M595" s="24" t="n">
         <v>9125</v>
       </c>
-      <c r="N595" s="23" t="n">
+      <c r="N595" s="24" t="n">
         <v>182.5</v>
       </c>
       <c r="O595" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P595" s="9"/>
-      <c r="Q595" s="24" t="s">
+      <c r="Q595" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R595" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S595" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T595" s="26"/>
+      <c r="S595" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T595" s="8"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="n">
@@ -35049,29 +34872,29 @@
       <c r="K596" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L596" s="22" t="s">
+      <c r="L596" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M596" s="23" t="n">
+      <c r="M596" s="24" t="n">
         <v>4500</v>
       </c>
-      <c r="N596" s="23" t="n">
+      <c r="N596" s="24" t="n">
         <v>90</v>
       </c>
       <c r="O596" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P596" s="9"/>
-      <c r="Q596" s="24" t="s">
+      <c r="Q596" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R596" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S596" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T596" s="26"/>
+      <c r="S596" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T596" s="8"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="n">
@@ -35103,29 +34926,29 @@
       <c r="K597" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L597" s="22" t="s">
+      <c r="L597" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M597" s="23" t="n">
+      <c r="M597" s="24" t="n">
         <v>1500</v>
       </c>
-      <c r="N597" s="23" t="n">
+      <c r="N597" s="24" t="n">
         <v>30</v>
       </c>
       <c r="O597" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P597" s="9"/>
-      <c r="Q597" s="24" t="s">
+      <c r="Q597" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R597" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S597" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T597" s="26"/>
+      <c r="S597" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T597" s="8"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="n">
@@ -35157,29 +34980,29 @@
       <c r="K598" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L598" s="22" t="s">
+      <c r="L598" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M598" s="23" t="n">
+      <c r="M598" s="24" t="n">
         <v>900</v>
       </c>
-      <c r="N598" s="23" t="n">
+      <c r="N598" s="24" t="n">
         <v>18</v>
       </c>
       <c r="O598" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P598" s="9"/>
-      <c r="Q598" s="24" t="s">
+      <c r="Q598" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R598" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S598" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T598" s="26"/>
+      <c r="S598" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T598" s="8"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="n">
@@ -35211,29 +35034,29 @@
       <c r="K599" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L599" s="22" t="s">
+      <c r="L599" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M599" s="23" t="n">
+      <c r="M599" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="N599" s="23" t="n">
+      <c r="N599" s="24" t="n">
         <v>7</v>
       </c>
       <c r="O599" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P599" s="9"/>
-      <c r="Q599" s="24" t="s">
+      <c r="Q599" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R599" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S599" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T599" s="26"/>
+      <c r="S599" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T599" s="8"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="n">
@@ -35265,29 +35088,29 @@
       <c r="K600" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L600" s="22" t="s">
+      <c r="L600" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M600" s="23" t="n">
+      <c r="M600" s="24" t="n">
         <v>2800</v>
       </c>
-      <c r="N600" s="23" t="n">
+      <c r="N600" s="24" t="n">
         <v>56</v>
       </c>
       <c r="O600" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P600" s="9"/>
-      <c r="Q600" s="24" t="s">
+      <c r="Q600" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R600" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S600" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T600" s="26"/>
+      <c r="S600" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T600" s="8"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="n">
@@ -35319,29 +35142,29 @@
       <c r="K601" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L601" s="22" t="s">
+      <c r="L601" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M601" s="23" t="n">
+      <c r="M601" s="24" t="n">
         <v>6832.5</v>
       </c>
-      <c r="N601" s="23" t="n">
+      <c r="N601" s="24" t="n">
         <v>136.65</v>
       </c>
       <c r="O601" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P601" s="9"/>
-      <c r="Q601" s="24" t="s">
+      <c r="Q601" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R601" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S601" s="25" t="n">
+      <c r="S601" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T601" s="26"/>
+      <c r="T601" s="8"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="n">
@@ -35373,29 +35196,29 @@
       <c r="K602" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L602" s="22" t="s">
+      <c r="L602" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M602" s="23" t="n">
+      <c r="M602" s="24" t="n">
         <v>40000</v>
       </c>
-      <c r="N602" s="23" t="n">
+      <c r="N602" s="24" t="n">
         <v>800</v>
       </c>
       <c r="O602" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P602" s="9"/>
-      <c r="Q602" s="24" t="s">
+      <c r="Q602" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R602" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S602" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T602" s="26"/>
+      <c r="S602" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T602" s="8"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="n">
@@ -35427,29 +35250,29 @@
       <c r="K603" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L603" s="22" t="s">
+      <c r="L603" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M603" s="23" t="n">
+      <c r="M603" s="24" t="n">
         <v>6000</v>
       </c>
-      <c r="N603" s="23" t="n">
+      <c r="N603" s="24" t="n">
         <v>120</v>
       </c>
       <c r="O603" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P603" s="9"/>
-      <c r="Q603" s="24" t="s">
+      <c r="Q603" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R603" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S603" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T603" s="26"/>
+      <c r="S603" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T603" s="8"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="n">
@@ -35481,29 +35304,29 @@
       <c r="K604" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="L604" s="22" t="s">
+      <c r="L604" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M604" s="23" t="n">
+      <c r="M604" s="24" t="n">
         <v>554.4</v>
       </c>
-      <c r="N604" s="23" t="n">
+      <c r="N604" s="24" t="n">
         <v>462</v>
       </c>
       <c r="O604" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P604" s="9"/>
-      <c r="Q604" s="24" t="s">
+      <c r="Q604" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R604" s="14" t="n">
         <v>1.2</v>
       </c>
-      <c r="S604" s="25" t="n">
+      <c r="S604" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
-      <c r="T604" s="26"/>
+      <c r="T604" s="8"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="n">
@@ -35535,29 +35358,29 @@
       <c r="K605" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="L605" s="22" t="s">
+      <c r="L605" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M605" s="23" t="n">
+      <c r="M605" s="24" t="n">
         <v>40620</v>
       </c>
-      <c r="N605" s="23" t="n">
+      <c r="N605" s="24" t="n">
         <v>2708</v>
       </c>
       <c r="O605" s="9" t="s">
         <v>40</v>
       </c>
       <c r="P605" s="9"/>
-      <c r="Q605" s="24" t="s">
+      <c r="Q605" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R605" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S605" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T605" s="26"/>
+      <c r="S605" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T605" s="8"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="n">
@@ -35589,29 +35412,29 @@
       <c r="K606" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="L606" s="22" t="s">
+      <c r="L606" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M606" s="23" t="n">
+      <c r="M606" s="24" t="n">
         <v>720</v>
       </c>
-      <c r="N606" s="23" t="n">
+      <c r="N606" s="24" t="n">
         <v>48</v>
       </c>
       <c r="O606" s="9" t="s">
         <v>40</v>
       </c>
       <c r="P606" s="9"/>
-      <c r="Q606" s="24" t="s">
+      <c r="Q606" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R606" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S606" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T606" s="26"/>
+      <c r="S606" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T606" s="8"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="n">
@@ -35643,29 +35466,29 @@
       <c r="K607" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="L607" s="22" t="s">
+      <c r="L607" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M607" s="23" t="n">
+      <c r="M607" s="24" t="n">
         <v>1762.5</v>
       </c>
-      <c r="N607" s="23" t="n">
+      <c r="N607" s="24" t="n">
         <v>23.5</v>
       </c>
       <c r="O607" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P607" s="9"/>
-      <c r="Q607" s="24" t="s">
+      <c r="Q607" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R607" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="S607" s="25" t="n">
+      <c r="S607" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T607" s="26"/>
+      <c r="T607" s="8"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="n">
@@ -35697,29 +35520,29 @@
       <c r="K608" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="L608" s="22" t="s">
+      <c r="L608" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M608" s="23" t="n">
+      <c r="M608" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="N608" s="23" t="n">
+      <c r="N608" s="24" t="n">
         <v>200</v>
       </c>
       <c r="O608" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P608" s="9"/>
-      <c r="Q608" s="24" t="s">
+      <c r="Q608" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R608" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S608" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T608" s="26"/>
+      <c r="S608" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T608" s="8"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="n">
@@ -35754,10 +35577,10 @@
       <c r="L609" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M609" s="25" t="n">
+      <c r="M609" s="26" t="n">
         <v>450</v>
       </c>
-      <c r="N609" s="25" t="n">
+      <c r="N609" s="26" t="n">
         <v>3</v>
       </c>
       <c r="O609" s="8" t="s">
@@ -35770,7 +35593,7 @@
       <c r="R609" s="31" t="n">
         <v>150</v>
       </c>
-      <c r="S609" s="25" t="n">
+      <c r="S609" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T609" s="8"/>
@@ -35808,10 +35631,10 @@
       <c r="L610" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M610" s="25" t="n">
+      <c r="M610" s="26" t="n">
         <v>2000</v>
       </c>
-      <c r="N610" s="25" t="n">
+      <c r="N610" s="26" t="n">
         <v>2</v>
       </c>
       <c r="O610" s="8" t="s">
@@ -35824,7 +35647,7 @@
       <c r="R610" s="31" t="n">
         <v>1000</v>
       </c>
-      <c r="S610" s="25" t="n">
+      <c r="S610" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T610" s="8"/>
@@ -35862,10 +35685,10 @@
       <c r="L611" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M611" s="25" t="n">
+      <c r="M611" s="26" t="n">
         <v>17687.5</v>
       </c>
-      <c r="N611" s="25" t="n">
+      <c r="N611" s="26" t="n">
         <v>17.6875</v>
       </c>
       <c r="O611" s="8" t="s">
@@ -35878,7 +35701,7 @@
       <c r="R611" s="31" t="n">
         <v>1000</v>
       </c>
-      <c r="S611" s="25" t="n">
+      <c r="S611" s="26" t="n">
         <v>5.5</v>
       </c>
       <c r="T611" s="8"/>
@@ -35916,10 +35739,10 @@
       <c r="L612" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M612" s="25" t="n">
+      <c r="M612" s="26" t="n">
         <v>35000</v>
       </c>
-      <c r="N612" s="25" t="n">
+      <c r="N612" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O612" s="8" t="s">
@@ -35932,7 +35755,7 @@
       <c r="R612" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="S612" s="25" t="n">
+      <c r="S612" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T612" s="8"/>
@@ -35970,10 +35793,10 @@
       <c r="L613" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M613" s="25" t="n">
+      <c r="M613" s="26" t="n">
         <v>54750</v>
       </c>
-      <c r="N613" s="25" t="n">
+      <c r="N613" s="26" t="n">
         <v>109.5</v>
       </c>
       <c r="O613" s="8" t="s">
@@ -35986,7 +35809,7 @@
       <c r="R613" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="S613" s="25" t="n">
+      <c r="S613" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T613" s="8"/>
@@ -36024,10 +35847,10 @@
       <c r="L614" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M614" s="25" t="n">
+      <c r="M614" s="26" t="n">
         <v>2050</v>
       </c>
-      <c r="N614" s="25" t="n">
+      <c r="N614" s="26" t="n">
         <v>205</v>
       </c>
       <c r="O614" s="8" t="s">
@@ -36040,7 +35863,7 @@
       <c r="R614" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S614" s="25" t="n">
+      <c r="S614" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T614" s="8" t="s">
@@ -36080,10 +35903,10 @@
       <c r="L615" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M615" s="25" t="n">
+      <c r="M615" s="26" t="n">
         <v>11220</v>
       </c>
-      <c r="N615" s="25" t="n">
+      <c r="N615" s="26" t="n">
         <v>1122</v>
       </c>
       <c r="O615" s="8" t="s">
@@ -36096,7 +35919,7 @@
       <c r="R615" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S615" s="25" t="n">
+      <c r="S615" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T615" s="8" t="s">
@@ -36136,10 +35959,10 @@
       <c r="L616" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M616" s="25" t="n">
+      <c r="M616" s="26" t="n">
         <v>2200</v>
       </c>
-      <c r="N616" s="25" t="n">
+      <c r="N616" s="26" t="n">
         <v>220</v>
       </c>
       <c r="O616" s="8" t="s">
@@ -36152,7 +35975,7 @@
       <c r="R616" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S616" s="25" t="n">
+      <c r="S616" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T616" s="8"/>
@@ -36190,10 +36013,10 @@
       <c r="L617" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M617" s="25" t="n">
+      <c r="M617" s="26" t="n">
         <v>200</v>
       </c>
-      <c r="N617" s="25" t="n">
+      <c r="N617" s="26" t="n">
         <v>20</v>
       </c>
       <c r="O617" s="8" t="s">
@@ -36206,7 +36029,7 @@
       <c r="R617" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S617" s="25" t="n">
+      <c r="S617" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T617" s="8"/>
@@ -36244,10 +36067,10 @@
       <c r="L618" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M618" s="25" t="n">
+      <c r="M618" s="26" t="n">
         <v>1070</v>
       </c>
-      <c r="N618" s="25" t="n">
+      <c r="N618" s="26" t="n">
         <v>107</v>
       </c>
       <c r="O618" s="8" t="s">
@@ -36260,7 +36083,7 @@
       <c r="R618" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S618" s="25" t="n">
+      <c r="S618" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T618" s="8"/>
@@ -36298,10 +36121,10 @@
       <c r="L619" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M619" s="25" t="n">
+      <c r="M619" s="26" t="n">
         <v>5180</v>
       </c>
-      <c r="N619" s="25" t="n">
+      <c r="N619" s="26" t="n">
         <v>370</v>
       </c>
       <c r="O619" s="8" t="s">
@@ -36314,7 +36137,7 @@
       <c r="R619" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="S619" s="25" t="n">
+      <c r="S619" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T619" s="8"/>
@@ -36352,10 +36175,10 @@
       <c r="L620" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M620" s="25" t="n">
+      <c r="M620" s="26" t="n">
         <v>882</v>
       </c>
-      <c r="N620" s="25" t="n">
+      <c r="N620" s="26" t="n">
         <v>63</v>
       </c>
       <c r="O620" s="8" t="s">
@@ -36368,7 +36191,7 @@
       <c r="R620" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="S620" s="25" t="n">
+      <c r="S620" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T620" s="8"/>
@@ -36406,10 +36229,10 @@
       <c r="L621" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M621" s="25" t="n">
+      <c r="M621" s="26" t="n">
         <v>540</v>
       </c>
-      <c r="N621" s="25" t="n">
+      <c r="N621" s="26" t="n">
         <v>45</v>
       </c>
       <c r="O621" s="8" t="s">
@@ -36422,7 +36245,7 @@
       <c r="R621" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S621" s="25" t="n">
+      <c r="S621" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T621" s="8"/>
@@ -36460,10 +36283,10 @@
       <c r="L622" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M622" s="25" t="n">
+      <c r="M622" s="26" t="n">
         <v>10132</v>
       </c>
-      <c r="N622" s="25" t="n">
+      <c r="N622" s="26" t="n">
         <v>298</v>
       </c>
       <c r="O622" s="8" t="s">
@@ -36476,7 +36299,7 @@
       <c r="R622" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="S622" s="25" t="n">
+      <c r="S622" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T622" s="8" t="s">
@@ -36516,10 +36339,10 @@
       <c r="L623" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M623" s="25" t="n">
+      <c r="M623" s="26" t="n">
         <v>21200</v>
       </c>
-      <c r="N623" s="25" t="n">
+      <c r="N623" s="26" t="n">
         <v>2120</v>
       </c>
       <c r="O623" s="8" t="s">
@@ -36532,7 +36355,7 @@
       <c r="R623" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S623" s="25" t="n">
+      <c r="S623" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T623" s="8"/>
@@ -36570,10 +36393,10 @@
       <c r="L624" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M624" s="25" t="n">
+      <c r="M624" s="26" t="n">
         <v>11680</v>
       </c>
-      <c r="N624" s="25" t="n">
+      <c r="N624" s="26" t="n">
         <v>1168</v>
       </c>
       <c r="O624" s="8" t="s">
@@ -36586,7 +36409,7 @@
       <c r="R624" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S624" s="25" t="n">
+      <c r="S624" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T624" s="8"/>
@@ -36624,10 +36447,10 @@
       <c r="L625" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M625" s="25" t="n">
+      <c r="M625" s="26" t="n">
         <v>5140</v>
       </c>
-      <c r="N625" s="25" t="n">
+      <c r="N625" s="26" t="n">
         <v>514</v>
       </c>
       <c r="O625" s="8" t="s">
@@ -36640,7 +36463,7 @@
       <c r="R625" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S625" s="25" t="n">
+      <c r="S625" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T625" s="8"/>
@@ -36678,10 +36501,10 @@
       <c r="L626" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M626" s="25" t="n">
+      <c r="M626" s="26" t="n">
         <v>3240</v>
       </c>
-      <c r="N626" s="25" t="n">
+      <c r="N626" s="26" t="n">
         <v>270</v>
       </c>
       <c r="O626" s="8" t="s">
@@ -36694,7 +36517,7 @@
       <c r="R626" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S626" s="25" t="n">
+      <c r="S626" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T626" s="8"/>
@@ -36732,10 +36555,10 @@
       <c r="L627" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M627" s="25" t="n">
+      <c r="M627" s="26" t="n">
         <v>840</v>
       </c>
-      <c r="N627" s="25" t="n">
+      <c r="N627" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O627" s="8" t="s">
@@ -36748,7 +36571,7 @@
       <c r="R627" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S627" s="25" t="n">
+      <c r="S627" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T627" s="8"/>
@@ -36786,10 +36609,10 @@
       <c r="L628" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M628" s="25" t="n">
+      <c r="M628" s="26" t="n">
         <v>192</v>
       </c>
-      <c r="N628" s="25" t="n">
+      <c r="N628" s="26" t="n">
         <v>16</v>
       </c>
       <c r="O628" s="8" t="s">
@@ -36802,7 +36625,7 @@
       <c r="R628" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S628" s="25" t="n">
+      <c r="S628" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T628" s="8"/>
@@ -36840,10 +36663,10 @@
       <c r="L629" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M629" s="25" t="n">
+      <c r="M629" s="26" t="n">
         <v>1152</v>
       </c>
-      <c r="N629" s="25" t="n">
+      <c r="N629" s="26" t="n">
         <v>96</v>
       </c>
       <c r="O629" s="8" t="s">
@@ -36856,7 +36679,7 @@
       <c r="R629" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S629" s="25" t="n">
+      <c r="S629" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T629" s="8"/>
@@ -36888,16 +36711,16 @@
       <c r="J630" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K630" s="28" t="s">
+      <c r="K630" s="32" t="s">
         <v>318</v>
       </c>
       <c r="L630" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M630" s="25" t="n">
+      <c r="M630" s="26" t="n">
         <v>780</v>
       </c>
-      <c r="N630" s="25" t="n">
+      <c r="N630" s="26" t="n">
         <v>60</v>
       </c>
       <c r="O630" s="8" t="s">
@@ -36910,7 +36733,7 @@
       <c r="R630" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S630" s="25" t="n">
+      <c r="S630" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T630" s="8"/>
@@ -36942,16 +36765,16 @@
       <c r="J631" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K631" s="28" t="s">
+      <c r="K631" s="32" t="s">
         <v>319</v>
       </c>
       <c r="L631" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M631" s="25" t="n">
+      <c r="M631" s="26" t="n">
         <v>646</v>
       </c>
-      <c r="N631" s="25" t="n">
+      <c r="N631" s="26" t="n">
         <v>19</v>
       </c>
       <c r="O631" s="8" t="s">
@@ -36964,7 +36787,7 @@
       <c r="R631" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="S631" s="25" t="n">
+      <c r="S631" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T631" s="8"/>
@@ -37002,10 +36825,10 @@
       <c r="L632" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M632" s="25" t="n">
+      <c r="M632" s="26" t="n">
         <v>384</v>
       </c>
-      <c r="N632" s="25" t="n">
+      <c r="N632" s="26" t="n">
         <v>48</v>
       </c>
       <c r="O632" s="8" t="s">
@@ -37018,7 +36841,7 @@
       <c r="R632" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S632" s="25" t="n">
+      <c r="S632" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T632" s="8"/>
@@ -37056,10 +36879,10 @@
       <c r="L633" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M633" s="25" t="n">
+      <c r="M633" s="26" t="n">
         <v>1160</v>
       </c>
-      <c r="N633" s="25" t="n">
+      <c r="N633" s="26" t="n">
         <v>145</v>
       </c>
       <c r="O633" s="8" t="s">
@@ -37072,7 +36895,7 @@
       <c r="R633" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S633" s="25" t="n">
+      <c r="S633" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T633" s="8"/>
@@ -37110,10 +36933,10 @@
       <c r="L634" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M634" s="25" t="n">
+      <c r="M634" s="26" t="n">
         <v>560</v>
       </c>
-      <c r="N634" s="25" t="n">
+      <c r="N634" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O634" s="8" t="s">
@@ -37126,7 +36949,7 @@
       <c r="R634" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S634" s="25" t="n">
+      <c r="S634" s="26" t="n">
         <v>91</v>
       </c>
       <c r="T634" s="8"/>
@@ -37164,10 +36987,10 @@
       <c r="L635" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M635" s="25" t="n">
+      <c r="M635" s="26" t="n">
         <v>6060</v>
       </c>
-      <c r="N635" s="25" t="n">
+      <c r="N635" s="26" t="n">
         <v>606</v>
       </c>
       <c r="O635" s="8" t="s">
@@ -37180,7 +37003,7 @@
       <c r="R635" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S635" s="25" t="n">
+      <c r="S635" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T635" s="8"/>
@@ -37212,16 +37035,16 @@
       <c r="J636" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K636" s="28" t="s">
+      <c r="K636" s="32" t="s">
         <v>322</v>
       </c>
       <c r="L636" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M636" s="25" t="n">
+      <c r="M636" s="26" t="n">
         <v>1800</v>
       </c>
-      <c r="N636" s="25" t="n">
+      <c r="N636" s="26" t="n">
         <v>180</v>
       </c>
       <c r="O636" s="8" t="s">
@@ -37234,7 +37057,7 @@
       <c r="R636" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S636" s="25" t="n">
+      <c r="S636" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T636" s="8"/>
@@ -37266,16 +37089,16 @@
       <c r="J637" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K637" s="28" t="s">
+      <c r="K637" s="32" t="s">
         <v>322</v>
       </c>
       <c r="L637" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M637" s="25" t="n">
+      <c r="M637" s="26" t="n">
         <v>1050</v>
       </c>
-      <c r="N637" s="25" t="n">
+      <c r="N637" s="26" t="n">
         <v>105</v>
       </c>
       <c r="O637" s="8" t="s">
@@ -37288,7 +37111,7 @@
       <c r="R637" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S637" s="25" t="n">
+      <c r="S637" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T637" s="8"/>
@@ -37320,16 +37143,16 @@
       <c r="J638" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K638" s="28" t="s">
+      <c r="K638" s="32" t="s">
         <v>322</v>
       </c>
       <c r="L638" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M638" s="25" t="n">
+      <c r="M638" s="26" t="n">
         <v>900</v>
       </c>
-      <c r="N638" s="25" t="n">
+      <c r="N638" s="26" t="n">
         <v>90</v>
       </c>
       <c r="O638" s="8" t="s">
@@ -37342,7 +37165,7 @@
       <c r="R638" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S638" s="25" t="n">
+      <c r="S638" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T638" s="8"/>
@@ -37374,16 +37197,16 @@
       <c r="J639" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K639" s="28" t="s">
+      <c r="K639" s="32" t="s">
         <v>322</v>
       </c>
       <c r="L639" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M639" s="25" t="n">
+      <c r="M639" s="26" t="n">
         <v>800</v>
       </c>
-      <c r="N639" s="25" t="n">
+      <c r="N639" s="26" t="n">
         <v>80</v>
       </c>
       <c r="O639" s="8" t="s">
@@ -37396,7 +37219,7 @@
       <c r="R639" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S639" s="25" t="n">
+      <c r="S639" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T639" s="8"/>
@@ -37434,10 +37257,10 @@
       <c r="L640" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M640" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N640" s="25"/>
+      <c r="M640" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N640" s="26"/>
       <c r="O640" s="8" t="s">
         <v>40</v>
       </c>
@@ -37446,7 +37269,7 @@
       <c r="R640" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S640" s="25" t="n">
+      <c r="S640" s="26" t="n">
         <v>1142</v>
       </c>
       <c r="T640" s="8"/>
@@ -37484,10 +37307,10 @@
       <c r="L641" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M641" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N641" s="25"/>
+      <c r="M641" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N641" s="26"/>
       <c r="O641" s="8" t="s">
         <v>40</v>
       </c>
@@ -37496,7 +37319,7 @@
       <c r="R641" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S641" s="25" t="n">
+      <c r="S641" s="26" t="n">
         <v>2126</v>
       </c>
       <c r="T641" s="8"/>
@@ -37534,10 +37357,10 @@
       <c r="L642" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M642" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N642" s="25"/>
+      <c r="M642" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" s="26"/>
       <c r="O642" s="8" t="s">
         <v>40</v>
       </c>
@@ -37546,7 +37369,7 @@
       <c r="R642" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S642" s="25" t="n">
+      <c r="S642" s="26" t="n">
         <v>1396</v>
       </c>
       <c r="T642" s="8"/>
@@ -37584,10 +37407,10 @@
       <c r="L643" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M643" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N643" s="25"/>
+      <c r="M643" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" s="26"/>
       <c r="O643" s="8" t="s">
         <v>40</v>
       </c>
@@ -37596,7 +37419,7 @@
       <c r="R643" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S643" s="25" t="n">
+      <c r="S643" s="26" t="n">
         <v>240</v>
       </c>
       <c r="T643" s="8"/>
@@ -37634,10 +37457,10 @@
       <c r="L644" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M644" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N644" s="25"/>
+      <c r="M644" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" s="26"/>
       <c r="O644" s="8" t="s">
         <v>40</v>
       </c>
@@ -37646,7 +37469,7 @@
       <c r="R644" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S644" s="25" t="n">
+      <c r="S644" s="26" t="n">
         <v>1160</v>
       </c>
       <c r="T644" s="8"/>
@@ -37684,10 +37507,10 @@
       <c r="L645" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M645" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N645" s="25"/>
+      <c r="M645" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" s="26"/>
       <c r="O645" s="8" t="s">
         <v>40</v>
       </c>
@@ -37696,7 +37519,7 @@
       <c r="R645" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S645" s="25" t="n">
+      <c r="S645" s="26" t="n">
         <v>438</v>
       </c>
       <c r="T645" s="8"/>
@@ -37734,10 +37557,10 @@
       <c r="L646" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M646" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N646" s="25"/>
+      <c r="M646" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N646" s="26"/>
       <c r="O646" s="8" t="s">
         <v>40</v>
       </c>
@@ -37746,7 +37569,7 @@
       <c r="R646" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S646" s="25" t="n">
+      <c r="S646" s="26" t="n">
         <v>600</v>
       </c>
       <c r="T646" s="8"/>
@@ -37784,10 +37607,10 @@
       <c r="L647" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M647" s="25" t="n">
+      <c r="M647" s="26" t="n">
         <v>9680</v>
       </c>
-      <c r="N647" s="25" t="n">
+      <c r="N647" s="26" t="n">
         <v>88</v>
       </c>
       <c r="O647" s="8" t="s">
@@ -37800,7 +37623,7 @@
       <c r="R647" s="31" t="n">
         <v>110</v>
       </c>
-      <c r="S647" s="25" t="n">
+      <c r="S647" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T647" s="8"/>
@@ -37832,16 +37655,16 @@
       <c r="J648" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K648" s="32" t="s">
+      <c r="K648" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L648" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M648" s="25" t="n">
+      <c r="M648" s="26" t="n">
         <v>103426.5</v>
       </c>
-      <c r="N648" s="25" t="n">
+      <c r="N648" s="26" t="n">
         <v>10887</v>
       </c>
       <c r="O648" s="8" t="s">
@@ -37854,7 +37677,7 @@
       <c r="R648" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S648" s="25" t="n">
+      <c r="S648" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T648" s="8"/>
@@ -37886,16 +37709,16 @@
       <c r="J649" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K649" s="32" t="s">
+      <c r="K649" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L649" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M649" s="25" t="n">
+      <c r="M649" s="26" t="n">
         <v>379306.5</v>
       </c>
-      <c r="N649" s="25" t="n">
+      <c r="N649" s="26" t="n">
         <v>39927</v>
       </c>
       <c r="O649" s="8" t="s">
@@ -37908,7 +37731,7 @@
       <c r="R649" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S649" s="25" t="n">
+      <c r="S649" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T649" s="8"/>
@@ -37940,16 +37763,16 @@
       <c r="J650" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K650" s="32" t="s">
+      <c r="K650" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L650" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M650" s="25" t="n">
+      <c r="M650" s="26" t="n">
         <v>7600</v>
       </c>
-      <c r="N650" s="25" t="n">
+      <c r="N650" s="26" t="n">
         <v>800</v>
       </c>
       <c r="O650" s="8" t="s">
@@ -37962,7 +37785,7 @@
       <c r="R650" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S650" s="25" t="n">
+      <c r="S650" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T650" s="8"/>
@@ -37994,16 +37817,16 @@
       <c r="J651" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K651" s="32" t="s">
+      <c r="K651" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L651" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M651" s="25" t="n">
+      <c r="M651" s="26" t="n">
         <v>4655</v>
       </c>
-      <c r="N651" s="25" t="n">
+      <c r="N651" s="26" t="n">
         <v>490</v>
       </c>
       <c r="O651" s="8" t="s">
@@ -38016,7 +37839,7 @@
       <c r="R651" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S651" s="25" t="n">
+      <c r="S651" s="26" t="n">
         <v>200</v>
       </c>
       <c r="T651" s="8"/>
@@ -38048,16 +37871,16 @@
       <c r="J652" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K652" s="32" t="s">
+      <c r="K652" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L652" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M652" s="25" t="n">
+      <c r="M652" s="26" t="n">
         <v>36290</v>
       </c>
-      <c r="N652" s="25" t="n">
+      <c r="N652" s="26" t="n">
         <v>3820</v>
       </c>
       <c r="O652" s="8" t="s">
@@ -38070,7 +37893,7 @@
       <c r="R652" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S652" s="25" t="n">
+      <c r="S652" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T652" s="8"/>
@@ -38102,16 +37925,16 @@
       <c r="J653" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K653" s="32" t="s">
+      <c r="K653" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L653" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M653" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N653" s="25"/>
+      <c r="M653" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N653" s="26"/>
       <c r="O653" s="8" t="s">
         <v>40</v>
       </c>
@@ -38120,7 +37943,7 @@
       <c r="R653" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S653" s="25" t="n">
+      <c r="S653" s="26" t="n">
         <v>300</v>
       </c>
       <c r="T653" s="8"/>
@@ -38152,16 +37975,16 @@
       <c r="J654" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K654" s="32" t="s">
+      <c r="K654" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L654" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M654" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N654" s="25"/>
+      <c r="M654" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N654" s="26"/>
       <c r="O654" s="8" t="s">
         <v>40</v>
       </c>
@@ -38170,7 +37993,7 @@
       <c r="R654" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S654" s="25" t="n">
+      <c r="S654" s="26" t="n">
         <v>750</v>
       </c>
       <c r="T654" s="8"/>
@@ -38202,16 +38025,16 @@
       <c r="J655" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K655" s="32" t="s">
+      <c r="K655" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L655" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M655" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N655" s="25"/>
+      <c r="M655" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N655" s="26"/>
       <c r="O655" s="8" t="s">
         <v>40</v>
       </c>
@@ -38220,7 +38043,7 @@
       <c r="R655" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S655" s="25" t="n">
+      <c r="S655" s="26" t="n">
         <v>1350</v>
       </c>
       <c r="T655" s="8"/>
@@ -38258,10 +38081,10 @@
       <c r="L656" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M656" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N656" s="25" t="n">
+      <c r="M656" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N656" s="26" t="n">
         <v>4000</v>
       </c>
       <c r="O656" s="8" t="s">
@@ -38274,7 +38097,7 @@
       <c r="R656" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S656" s="25" t="n">
+      <c r="S656" s="26" t="n">
         <v>1000</v>
       </c>
       <c r="T656" s="8"/>
@@ -38306,16 +38129,16 @@
       <c r="J657" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K657" s="32" t="s">
+      <c r="K657" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L657" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M657" s="25" t="n">
+      <c r="M657" s="26" t="n">
         <v>1171.2</v>
       </c>
-      <c r="N657" s="25" t="n">
+      <c r="N657" s="26" t="n">
         <v>36.6</v>
       </c>
       <c r="O657" s="8" t="s">
@@ -38328,7 +38151,7 @@
       <c r="R657" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S657" s="25" t="n">
+      <c r="S657" s="26" t="n">
         <v>-0.200000000000045</v>
       </c>
       <c r="T657" s="8"/>
@@ -38360,16 +38183,16 @@
       <c r="J658" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K658" s="32" t="s">
+      <c r="K658" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L658" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M658" s="25" t="n">
+      <c r="M658" s="26" t="n">
         <v>592</v>
       </c>
-      <c r="N658" s="25" t="n">
+      <c r="N658" s="26" t="n">
         <v>18.5</v>
       </c>
       <c r="O658" s="8" t="s">
@@ -38382,7 +38205,7 @@
       <c r="R658" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S658" s="25" t="n">
+      <c r="S658" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T658" s="8"/>
@@ -38414,16 +38237,16 @@
       <c r="J659" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K659" s="32" t="s">
+      <c r="K659" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L659" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M659" s="25" t="n">
+      <c r="M659" s="26" t="n">
         <v>329.6</v>
       </c>
-      <c r="N659" s="25" t="n">
+      <c r="N659" s="26" t="n">
         <v>10.3</v>
       </c>
       <c r="O659" s="8" t="s">
@@ -38436,7 +38259,7 @@
       <c r="R659" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S659" s="25" t="n">
+      <c r="S659" s="26" t="n">
         <v>15.4</v>
       </c>
       <c r="T659" s="8"/>
@@ -38468,16 +38291,16 @@
       <c r="J660" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K660" s="32" t="s">
+      <c r="K660" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L660" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M660" s="25" t="n">
+      <c r="M660" s="26" t="n">
         <v>801.6</v>
       </c>
-      <c r="N660" s="25" t="n">
+      <c r="N660" s="26" t="n">
         <v>25.05</v>
       </c>
       <c r="O660" s="8" t="s">
@@ -38490,7 +38313,7 @@
       <c r="R660" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S660" s="25" t="n">
+      <c r="S660" s="26" t="n">
         <v>-0.600000000000023</v>
       </c>
       <c r="T660" s="8"/>
@@ -38522,16 +38345,16 @@
       <c r="J661" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K661" s="32" t="s">
+      <c r="K661" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L661" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M661" s="25" t="n">
+      <c r="M661" s="26" t="n">
         <v>179.2</v>
       </c>
-      <c r="N661" s="25" t="n">
+      <c r="N661" s="26" t="n">
         <v>5.6</v>
       </c>
       <c r="O661" s="8" t="s">
@@ -38544,7 +38367,7 @@
       <c r="R661" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S661" s="25" t="n">
+      <c r="S661" s="26" t="n">
         <v>-0.199999999999989</v>
       </c>
       <c r="T661" s="8"/>
@@ -38576,16 +38399,16 @@
       <c r="J662" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K662" s="32" t="s">
+      <c r="K662" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L662" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M662" s="25" t="n">
+      <c r="M662" s="26" t="n">
         <v>1358.4</v>
       </c>
-      <c r="N662" s="25" t="n">
+      <c r="N662" s="26" t="n">
         <v>42.45</v>
       </c>
       <c r="O662" s="8" t="s">
@@ -38598,7 +38421,7 @@
       <c r="R662" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S662" s="25" t="n">
+      <c r="S662" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
       <c r="T662" s="8"/>
@@ -38630,16 +38453,16 @@
       <c r="J663" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K663" s="32" t="s">
+      <c r="K663" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L663" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M663" s="25" t="n">
+      <c r="M663" s="26" t="n">
         <v>306</v>
       </c>
-      <c r="N663" s="25" t="n">
+      <c r="N663" s="26" t="n">
         <v>8.5</v>
       </c>
       <c r="O663" s="8" t="s">
@@ -38652,7 +38475,7 @@
       <c r="R663" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S663" s="25" t="n">
+      <c r="S663" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T663" s="8"/>
@@ -38684,16 +38507,16 @@
       <c r="J664" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K664" s="32" t="s">
+      <c r="K664" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L664" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M664" s="25" t="n">
+      <c r="M664" s="26" t="n">
         <v>716.4</v>
       </c>
-      <c r="N664" s="25" t="n">
+      <c r="N664" s="26" t="n">
         <v>19.9</v>
       </c>
       <c r="O664" s="8" t="s">
@@ -38706,7 +38529,7 @@
       <c r="R664" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S664" s="25" t="n">
+      <c r="S664" s="26" t="n">
         <v>-0.399999999999977</v>
       </c>
       <c r="T664" s="8"/>
@@ -38738,16 +38561,16 @@
       <c r="J665" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K665" s="32" t="s">
+      <c r="K665" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L665" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M665" s="25" t="n">
+      <c r="M665" s="26" t="n">
         <v>428.4</v>
       </c>
-      <c r="N665" s="25" t="n">
+      <c r="N665" s="26" t="n">
         <v>11.9</v>
       </c>
       <c r="O665" s="8" t="s">
@@ -38760,7 +38583,7 @@
       <c r="R665" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S665" s="25" t="n">
+      <c r="S665" s="26" t="n">
         <v>-0.400000000000034</v>
       </c>
       <c r="T665" s="8"/>
@@ -38792,16 +38615,16 @@
       <c r="J666" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K666" s="32" t="s">
+      <c r="K666" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L666" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M666" s="25" t="n">
+      <c r="M666" s="26" t="n">
         <v>251.28</v>
       </c>
-      <c r="N666" s="25" t="n">
+      <c r="N666" s="26" t="n">
         <v>6.98</v>
       </c>
       <c r="O666" s="8" t="s">
@@ -38814,7 +38637,7 @@
       <c r="R666" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S666" s="25" t="n">
+      <c r="S666" s="26" t="n">
         <v>-0.28000000000003</v>
       </c>
       <c r="T666" s="8"/>
@@ -38846,16 +38669,16 @@
       <c r="J667" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K667" s="32" t="s">
+      <c r="K667" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L667" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M667" s="25" t="n">
+      <c r="M667" s="26" t="n">
         <v>435.6</v>
       </c>
-      <c r="N667" s="25" t="n">
+      <c r="N667" s="26" t="n">
         <v>12.1</v>
       </c>
       <c r="O667" s="8" t="s">
@@ -38868,7 +38691,7 @@
       <c r="R667" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S667" s="25" t="n">
+      <c r="S667" s="26" t="n">
         <v>0.400000000000034</v>
       </c>
       <c r="T667" s="8"/>
@@ -38900,16 +38723,16 @@
       <c r="J668" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K668" s="32" t="s">
+      <c r="K668" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L668" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M668" s="25" t="n">
+      <c r="M668" s="26" t="n">
         <v>4014</v>
       </c>
-      <c r="N668" s="25" t="n">
+      <c r="N668" s="26" t="n">
         <v>111.5</v>
       </c>
       <c r="O668" s="8" t="s">
@@ -38922,7 +38745,7 @@
       <c r="R668" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S668" s="25" t="n">
+      <c r="S668" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T668" s="8"/>
@@ -38960,10 +38783,10 @@
       <c r="L669" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M669" s="25" t="n">
+      <c r="M669" s="26" t="n">
         <v>7215</v>
       </c>
-      <c r="N669" s="25" t="n">
+      <c r="N669" s="26" t="n">
         <v>555</v>
       </c>
       <c r="O669" s="8" t="s">
@@ -38976,7 +38799,7 @@
       <c r="R669" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S669" s="25" t="n">
+      <c r="S669" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T669" s="8"/>
@@ -39014,10 +38837,10 @@
       <c r="L670" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M670" s="25" t="n">
+      <c r="M670" s="26" t="n">
         <v>3802.5</v>
       </c>
-      <c r="N670" s="25" t="n">
+      <c r="N670" s="26" t="n">
         <v>292.5</v>
       </c>
       <c r="O670" s="8" t="s">
@@ -39030,7 +38853,7 @@
       <c r="R670" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S670" s="25" t="n">
+      <c r="S670" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T670" s="8"/>
@@ -39068,10 +38891,10 @@
       <c r="L671" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M671" s="25" t="n">
+      <c r="M671" s="26" t="n">
         <v>2626</v>
       </c>
-      <c r="N671" s="25" t="n">
+      <c r="N671" s="26" t="n">
         <v>202</v>
       </c>
       <c r="O671" s="8" t="s">
@@ -39084,7 +38907,7 @@
       <c r="R671" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S671" s="25" t="n">
+      <c r="S671" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T671" s="8"/>
@@ -39122,10 +38945,10 @@
       <c r="L672" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M672" s="25" t="n">
+      <c r="M672" s="26" t="n">
         <v>2966.21</v>
       </c>
-      <c r="N672" s="25" t="n">
+      <c r="N672" s="26" t="n">
         <v>228.17</v>
       </c>
       <c r="O672" s="8" t="s">
@@ -39138,7 +38961,7 @@
       <c r="R672" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S672" s="25" t="n">
+      <c r="S672" s="26" t="n">
         <v>-0.210000000000036</v>
       </c>
       <c r="T672" s="8"/>
@@ -39176,10 +38999,10 @@
       <c r="L673" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M673" s="25" t="n">
+      <c r="M673" s="26" t="n">
         <v>13637.5</v>
       </c>
-      <c r="N673" s="25" t="n">
+      <c r="N673" s="26" t="n">
         <v>10910</v>
       </c>
       <c r="O673" s="8" t="s">
@@ -39192,7 +39015,7 @@
       <c r="R673" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S673" s="25" t="n">
+      <c r="S673" s="26" t="n">
         <v>-470.5</v>
       </c>
       <c r="T673" s="8"/>
@@ -39230,10 +39053,10 @@
       <c r="L674" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M674" s="25" t="n">
+      <c r="M674" s="26" t="n">
         <v>650</v>
       </c>
-      <c r="N674" s="25" t="n">
+      <c r="N674" s="26" t="n">
         <v>520</v>
       </c>
       <c r="O674" s="8" t="s">
@@ -39246,7 +39069,7 @@
       <c r="R674" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S674" s="25" t="n">
+      <c r="S674" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T674" s="8"/>
@@ -39284,10 +39107,10 @@
       <c r="L675" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M675" s="25" t="n">
+      <c r="M675" s="26" t="n">
         <v>1868.75</v>
       </c>
-      <c r="N675" s="25" t="n">
+      <c r="N675" s="26" t="n">
         <v>1495</v>
       </c>
       <c r="O675" s="8" t="s">
@@ -39300,7 +39123,7 @@
       <c r="R675" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S675" s="25" t="n">
+      <c r="S675" s="26" t="n">
         <v>0.25</v>
       </c>
       <c r="T675" s="8"/>
@@ -39338,10 +39161,10 @@
       <c r="L676" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M676" s="25" t="n">
+      <c r="M676" s="26" t="n">
         <v>375</v>
       </c>
-      <c r="N676" s="25" t="n">
+      <c r="N676" s="26" t="n">
         <v>300</v>
       </c>
       <c r="O676" s="8" t="s">
@@ -39354,7 +39177,7 @@
       <c r="R676" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S676" s="25" t="n">
+      <c r="S676" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T676" s="8"/>
@@ -39392,10 +39215,10 @@
       <c r="L677" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M677" s="25" t="n">
+      <c r="M677" s="26" t="n">
         <v>1010</v>
       </c>
-      <c r="N677" s="25" t="n">
+      <c r="N677" s="26" t="n">
         <v>808</v>
       </c>
       <c r="O677" s="8" t="s">
@@ -39408,7 +39231,7 @@
       <c r="R677" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S677" s="25" t="n">
+      <c r="S677" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T677" s="8"/>
@@ -39446,10 +39269,10 @@
       <c r="L678" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M678" s="25" t="n">
+      <c r="M678" s="26" t="n">
         <v>2095</v>
       </c>
-      <c r="N678" s="25" t="n">
+      <c r="N678" s="26" t="n">
         <v>1676</v>
       </c>
       <c r="O678" s="8" t="s">
@@ -39462,7 +39285,7 @@
       <c r="R678" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S678" s="25" t="n">
+      <c r="S678" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T678" s="8"/>
@@ -39500,10 +39323,10 @@
       <c r="L679" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M679" s="25" t="n">
+      <c r="M679" s="26" t="n">
         <v>2443.75</v>
       </c>
-      <c r="N679" s="25" t="n">
+      <c r="N679" s="26" t="n">
         <v>1955</v>
       </c>
       <c r="O679" s="8" t="s">
@@ -39516,7 +39339,7 @@
       <c r="R679" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S679" s="25" t="n">
+      <c r="S679" s="26" t="n">
         <v>0.25</v>
       </c>
       <c r="T679" s="8"/>
@@ -39554,10 +39377,10 @@
       <c r="L680" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M680" s="25" t="n">
+      <c r="M680" s="26" t="n">
         <v>1750</v>
       </c>
-      <c r="N680" s="25" t="n">
+      <c r="N680" s="26" t="n">
         <v>1400</v>
       </c>
       <c r="O680" s="8" t="s">
@@ -39570,7 +39393,7 @@
       <c r="R680" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S680" s="25" t="n">
+      <c r="S680" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T680" s="8"/>
@@ -39608,10 +39431,10 @@
       <c r="L681" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M681" s="25" t="n">
+      <c r="M681" s="26" t="n">
         <v>27475.2</v>
       </c>
-      <c r="N681" s="25" t="n">
+      <c r="N681" s="26" t="n">
         <v>30528</v>
       </c>
       <c r="O681" s="8" t="s">
@@ -39624,7 +39447,7 @@
       <c r="R681" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S681" s="25" t="n">
+      <c r="S681" s="26" t="n">
         <v>-0.200000000000728</v>
       </c>
       <c r="T681" s="8" t="s">
@@ -39664,10 +39487,10 @@
       <c r="L682" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M682" s="25" t="n">
+      <c r="M682" s="26" t="n">
         <v>1202.4</v>
       </c>
-      <c r="N682" s="25" t="n">
+      <c r="N682" s="26" t="n">
         <v>1336</v>
       </c>
       <c r="O682" s="8" t="s">
@@ -39680,7 +39503,7 @@
       <c r="R682" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S682" s="25" t="n">
+      <c r="S682" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
       <c r="T682" s="8" t="s">
@@ -39720,10 +39543,10 @@
       <c r="L683" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M683" s="25" t="n">
+      <c r="M683" s="26" t="n">
         <v>20059.2</v>
       </c>
-      <c r="N683" s="25" t="n">
+      <c r="N683" s="26" t="n">
         <v>22288</v>
       </c>
       <c r="O683" s="8" t="s">
@@ -39736,7 +39559,7 @@
       <c r="R683" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S683" s="25" t="n">
+      <c r="S683" s="26" t="n">
         <v>599.799999999999</v>
       </c>
       <c r="T683" s="8" t="s">
@@ -39776,10 +39599,10 @@
       <c r="L684" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M684" s="25" t="n">
+      <c r="M684" s="26" t="n">
         <v>1310.4</v>
       </c>
-      <c r="N684" s="25" t="n">
+      <c r="N684" s="26" t="n">
         <v>1456</v>
       </c>
       <c r="O684" s="8" t="s">
@@ -39792,7 +39615,7 @@
       <c r="R684" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S684" s="25" t="n">
+      <c r="S684" s="26" t="n">
         <v>-1.40000000000009</v>
       </c>
       <c r="T684" s="8" t="s">
@@ -39832,10 +39655,10 @@
       <c r="L685" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M685" s="25" t="n">
+      <c r="M685" s="26" t="n">
         <v>231692.8</v>
       </c>
-      <c r="N685" s="25" t="n">
+      <c r="N685" s="26" t="n">
         <v>289616</v>
       </c>
       <c r="O685" s="8" t="s">
@@ -39848,7 +39671,7 @@
       <c r="R685" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S685" s="25" t="n">
+      <c r="S685" s="26" t="n">
         <v>0.199999999982538</v>
       </c>
       <c r="T685" s="8" t="s">
@@ -39888,10 +39711,10 @@
       <c r="L686" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M686" s="25" t="n">
+      <c r="M686" s="26" t="n">
         <v>320</v>
       </c>
-      <c r="N686" s="25" t="n">
+      <c r="N686" s="26" t="n">
         <v>400</v>
       </c>
       <c r="O686" s="8" t="s">
@@ -39904,7 +39727,7 @@
       <c r="R686" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S686" s="25" t="n">
+      <c r="S686" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T686" s="8" t="s">
@@ -39944,10 +39767,10 @@
       <c r="L687" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M687" s="25" t="n">
+      <c r="M687" s="26" t="n">
         <v>10336</v>
       </c>
-      <c r="N687" s="25" t="n">
+      <c r="N687" s="26" t="n">
         <v>12920</v>
       </c>
       <c r="O687" s="8" t="s">
@@ -39960,7 +39783,7 @@
       <c r="R687" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S687" s="25" t="n">
+      <c r="S687" s="26" t="n">
         <v>-20</v>
       </c>
       <c r="T687" s="8" t="s">
@@ -40000,10 +39823,10 @@
       <c r="L688" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M688" s="25" t="n">
+      <c r="M688" s="26" t="n">
         <v>6611.2</v>
       </c>
-      <c r="N688" s="25" t="n">
+      <c r="N688" s="26" t="n">
         <v>8264</v>
       </c>
       <c r="O688" s="8" t="s">
@@ -40016,7 +39839,7 @@
       <c r="R688" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S688" s="25" t="n">
+      <c r="S688" s="26" t="n">
         <v>-0.200000000000728</v>
       </c>
       <c r="T688" s="8" t="s">
@@ -40056,10 +39879,10 @@
       <c r="L689" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M689" s="25" t="n">
+      <c r="M689" s="26" t="n">
         <v>9913.6</v>
       </c>
-      <c r="N689" s="25" t="n">
+      <c r="N689" s="26" t="n">
         <v>12392</v>
       </c>
       <c r="O689" s="8" t="s">
@@ -40072,7 +39895,7 @@
       <c r="R689" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S689" s="25" t="n">
+      <c r="S689" s="26" t="n">
         <v>-0.600000000000364</v>
       </c>
       <c r="T689" s="8" t="s">
@@ -40112,10 +39935,10 @@
       <c r="L690" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M690" s="25" t="n">
+      <c r="M690" s="26" t="n">
         <v>116780.8</v>
       </c>
-      <c r="N690" s="25" t="n">
+      <c r="N690" s="26" t="n">
         <v>145976</v>
       </c>
       <c r="O690" s="8" t="s">
@@ -40128,7 +39951,7 @@
       <c r="R690" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S690" s="25" t="n">
+      <c r="S690" s="26" t="n">
         <v>-0.80000000000291</v>
       </c>
       <c r="T690" s="8" t="s">
@@ -40168,10 +39991,10 @@
       <c r="L691" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M691" s="25" t="n">
+      <c r="M691" s="26" t="n">
         <v>992</v>
       </c>
-      <c r="N691" s="25" t="n">
+      <c r="N691" s="26" t="n">
         <v>1240</v>
       </c>
       <c r="O691" s="8" t="s">
@@ -40184,7 +40007,7 @@
       <c r="R691" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S691" s="25" t="n">
+      <c r="S691" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T691" s="8" t="s">
@@ -40224,10 +40047,10 @@
       <c r="L692" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M692" s="25" t="n">
+      <c r="M692" s="26" t="n">
         <v>11208</v>
       </c>
-      <c r="N692" s="25" t="n">
+      <c r="N692" s="26" t="n">
         <v>22416</v>
       </c>
       <c r="O692" s="8" t="s">
@@ -40240,7 +40063,7 @@
       <c r="R692" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S692" s="25" t="n">
+      <c r="S692" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T692" s="8" t="s">
@@ -40280,10 +40103,10 @@
       <c r="L693" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M693" s="25" t="n">
+      <c r="M693" s="26" t="n">
         <v>7476</v>
       </c>
-      <c r="N693" s="25" t="n">
+      <c r="N693" s="26" t="n">
         <v>14952</v>
       </c>
       <c r="O693" s="8" t="s">
@@ -40296,7 +40119,7 @@
       <c r="R693" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S693" s="25" t="n">
+      <c r="S693" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T693" s="8" t="s">
@@ -40336,10 +40159,10 @@
       <c r="L694" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M694" s="25" t="n">
+      <c r="M694" s="26" t="n">
         <v>12032</v>
       </c>
-      <c r="N694" s="25" t="n">
+      <c r="N694" s="26" t="n">
         <v>24064</v>
       </c>
       <c r="O694" s="8" t="s">
@@ -40352,7 +40175,7 @@
       <c r="R694" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S694" s="25" t="n">
+      <c r="S694" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T694" s="8" t="s">
@@ -40392,10 +40215,10 @@
       <c r="L695" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M695" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N695" s="25" t="n">
+      <c r="M695" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N695" s="26" t="n">
         <v>4576</v>
       </c>
       <c r="O695" s="8" t="s">
@@ -40408,7 +40231,7 @@
       <c r="R695" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S695" s="25" t="n">
+      <c r="S695" s="26" t="n">
         <v>2288</v>
       </c>
       <c r="T695" s="8" t="s">
@@ -40448,10 +40271,10 @@
       <c r="L696" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M696" s="25" t="n">
+      <c r="M696" s="26" t="n">
         <v>406372</v>
       </c>
-      <c r="N696" s="25" t="n">
+      <c r="N696" s="26" t="n">
         <v>812744</v>
       </c>
       <c r="O696" s="8" t="s">
@@ -40464,7 +40287,7 @@
       <c r="R696" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S696" s="25" t="n">
+      <c r="S696" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T696" s="8" t="s">
@@ -40504,10 +40327,10 @@
       <c r="L697" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M697" s="25" t="n">
+      <c r="M697" s="26" t="n">
         <v>21600</v>
       </c>
-      <c r="N697" s="25" t="n">
+      <c r="N697" s="26" t="n">
         <v>43200</v>
       </c>
       <c r="O697" s="8" t="s">
@@ -40520,7 +40343,7 @@
       <c r="R697" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S697" s="25" t="n">
+      <c r="S697" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T697" s="8" t="s">
@@ -40560,10 +40383,10 @@
       <c r="L698" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M698" s="25" t="n">
+      <c r="M698" s="26" t="n">
         <v>91376</v>
       </c>
-      <c r="N698" s="25" t="n">
+      <c r="N698" s="26" t="n">
         <v>182752</v>
       </c>
       <c r="O698" s="8" t="s">
@@ -40576,7 +40399,7 @@
       <c r="R698" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S698" s="25" t="n">
+      <c r="S698" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T698" s="8" t="s">
@@ -40616,10 +40439,10 @@
       <c r="L699" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M699" s="25" t="n">
+      <c r="M699" s="26" t="n">
         <v>73040</v>
       </c>
-      <c r="N699" s="25" t="n">
+      <c r="N699" s="26" t="n">
         <v>146080</v>
       </c>
       <c r="O699" s="8" t="s">
@@ -40632,7 +40455,7 @@
       <c r="R699" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S699" s="25" t="n">
+      <c r="S699" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T699" s="8" t="s">
@@ -40672,10 +40495,10 @@
       <c r="L700" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M700" s="25" t="n">
+      <c r="M700" s="26" t="n">
         <v>175024</v>
       </c>
-      <c r="N700" s="25" t="n">
+      <c r="N700" s="26" t="n">
         <v>350048</v>
       </c>
       <c r="O700" s="8" t="s">
@@ -40688,7 +40511,7 @@
       <c r="R700" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S700" s="25" t="n">
+      <c r="S700" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T700" s="8" t="s">
@@ -40728,10 +40551,10 @@
       <c r="L701" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M701" s="25" t="n">
+      <c r="M701" s="26" t="n">
         <v>97572</v>
       </c>
-      <c r="N701" s="25" t="n">
+      <c r="N701" s="26" t="n">
         <v>195144</v>
       </c>
       <c r="O701" s="8" t="s">
@@ -40744,7 +40567,7 @@
       <c r="R701" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S701" s="25" t="n">
+      <c r="S701" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T701" s="8" t="s">
@@ -40784,10 +40607,10 @@
       <c r="L702" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M702" s="25" t="n">
+      <c r="M702" s="26" t="n">
         <v>39560</v>
       </c>
-      <c r="N702" s="25" t="n">
+      <c r="N702" s="26" t="n">
         <v>79120</v>
       </c>
       <c r="O702" s="8" t="s">
@@ -40800,7 +40623,7 @@
       <c r="R702" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S702" s="25" t="n">
+      <c r="S702" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T702" s="8" t="s">
@@ -40840,10 +40663,10 @@
       <c r="L703" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M703" s="25" t="n">
+      <c r="M703" s="26" t="n">
         <v>483680</v>
       </c>
-      <c r="N703" s="25" t="n">
+      <c r="N703" s="26" t="n">
         <v>967360</v>
       </c>
       <c r="O703" s="8" t="s">
@@ -40856,7 +40679,7 @@
       <c r="R703" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S703" s="25" t="n">
+      <c r="S703" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T703" s="8" t="s">
@@ -40896,10 +40719,10 @@
       <c r="L704" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M704" s="25" t="n">
+      <c r="M704" s="26" t="n">
         <v>143556</v>
       </c>
-      <c r="N704" s="25" t="n">
+      <c r="N704" s="26" t="n">
         <v>287112</v>
       </c>
       <c r="O704" s="8" t="s">
@@ -40912,7 +40735,7 @@
       <c r="R704" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S704" s="25" t="n">
+      <c r="S704" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T704" s="8" t="s">
@@ -40952,10 +40775,10 @@
       <c r="L705" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M705" s="25" t="n">
+      <c r="M705" s="26" t="n">
         <v>4340</v>
       </c>
-      <c r="N705" s="25" t="n">
+      <c r="N705" s="26" t="n">
         <v>8680</v>
       </c>
       <c r="O705" s="8" t="s">
@@ -40968,7 +40791,7 @@
       <c r="R705" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S705" s="25" t="n">
+      <c r="S705" s="26" t="n">
         <v>868</v>
       </c>
       <c r="T705" s="8" t="s">
@@ -41008,10 +40831,10 @@
       <c r="L706" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M706" s="25" t="n">
+      <c r="M706" s="26" t="n">
         <v>189664</v>
       </c>
-      <c r="N706" s="25" t="n">
+      <c r="N706" s="26" t="n">
         <v>379328</v>
       </c>
       <c r="O706" s="8" t="s">
@@ -41024,7 +40847,7 @@
       <c r="R706" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S706" s="25" t="n">
+      <c r="S706" s="26" t="n">
         <v>-67</v>
       </c>
       <c r="T706" s="8" t="s">
@@ -41064,10 +40887,10 @@
       <c r="L707" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M707" s="25" t="n">
+      <c r="M707" s="26" t="n">
         <v>49960</v>
       </c>
-      <c r="N707" s="25" t="n">
+      <c r="N707" s="26" t="n">
         <v>99920</v>
       </c>
       <c r="O707" s="8" t="s">
@@ -41080,7 +40903,7 @@
       <c r="R707" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S707" s="25" t="n">
+      <c r="S707" s="26" t="n">
         <v>-8</v>
       </c>
       <c r="T707" s="8" t="s">
@@ -41120,10 +40943,10 @@
       <c r="L708" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M708" s="25" t="n">
+      <c r="M708" s="26" t="n">
         <v>3476</v>
       </c>
-      <c r="N708" s="25" t="n">
+      <c r="N708" s="26" t="n">
         <v>6952</v>
       </c>
       <c r="O708" s="8" t="s">
@@ -41136,7 +40959,7 @@
       <c r="R708" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S708" s="25" t="n">
+      <c r="S708" s="26" t="n">
         <v>-5</v>
       </c>
       <c r="T708" s="8" t="s">
@@ -41176,10 +40999,10 @@
       <c r="L709" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M709" s="25" t="n">
+      <c r="M709" s="26" t="n">
         <v>3472</v>
       </c>
-      <c r="N709" s="25" t="n">
+      <c r="N709" s="26" t="n">
         <v>6944</v>
       </c>
       <c r="O709" s="8" t="s">
@@ -41192,7 +41015,7 @@
       <c r="R709" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S709" s="25" t="n">
+      <c r="S709" s="26" t="n">
         <v>-46</v>
       </c>
       <c r="T709" s="8" t="s">
@@ -41232,10 +41055,10 @@
       <c r="L710" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M710" s="25" t="n">
+      <c r="M710" s="26" t="n">
         <v>28956</v>
       </c>
-      <c r="N710" s="25" t="n">
+      <c r="N710" s="26" t="n">
         <v>57912</v>
       </c>
       <c r="O710" s="8" t="s">
@@ -41248,7 +41071,7 @@
       <c r="R710" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S710" s="25" t="n">
+      <c r="S710" s="26" t="n">
         <v>-9</v>
       </c>
       <c r="T710" s="8" t="s">
@@ -41288,10 +41111,10 @@
       <c r="L711" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M711" s="25" t="n">
+      <c r="M711" s="26" t="n">
         <v>8000</v>
       </c>
-      <c r="N711" s="25" t="n">
+      <c r="N711" s="26" t="n">
         <v>16000</v>
       </c>
       <c r="O711" s="8" t="s">
@@ -41304,7 +41127,7 @@
       <c r="R711" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S711" s="25" t="n">
+      <c r="S711" s="26" t="n">
         <v>600</v>
       </c>
       <c r="T711" s="8" t="s">
@@ -41344,10 +41167,10 @@
       <c r="L712" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M712" s="25" t="n">
+      <c r="M712" s="26" t="n">
         <v>23953</v>
       </c>
-      <c r="N712" s="25" t="n">
+      <c r="N712" s="26" t="n">
         <v>47906</v>
       </c>
       <c r="O712" s="8" t="s">
@@ -41360,7 +41183,7 @@
       <c r="R712" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S712" s="25" t="n">
+      <c r="S712" s="26" t="n">
         <v>-11</v>
       </c>
       <c r="T712" s="8" t="s">
@@ -41400,10 +41223,10 @@
       <c r="L713" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M713" s="25" t="n">
+      <c r="M713" s="26" t="n">
         <v>3956</v>
       </c>
-      <c r="N713" s="25" t="n">
+      <c r="N713" s="26" t="n">
         <v>7912</v>
       </c>
       <c r="O713" s="8" t="s">
@@ -41416,7 +41239,7 @@
       <c r="R713" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S713" s="25" t="n">
+      <c r="S713" s="26" t="n">
         <v>91</v>
       </c>
       <c r="T713" s="8" t="s">
@@ -41456,10 +41279,10 @@
       <c r="L714" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M714" s="25" t="n">
+      <c r="M714" s="26" t="n">
         <v>14076</v>
       </c>
-      <c r="N714" s="25" t="n">
+      <c r="N714" s="26" t="n">
         <v>28152</v>
       </c>
       <c r="O714" s="8" t="s">
@@ -41472,7 +41295,7 @@
       <c r="R714" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S714" s="25" t="n">
+      <c r="S714" s="26" t="n">
         <v>-85</v>
       </c>
       <c r="T714" s="8" t="s">
@@ -41512,10 +41335,10 @@
       <c r="L715" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M715" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N715" s="25"/>
+      <c r="M715" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N715" s="26"/>
       <c r="O715" s="8" t="s">
         <v>59</v>
       </c>
@@ -41524,7 +41347,7 @@
       <c r="R715" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S715" s="25" t="n">
+      <c r="S715" s="26" t="n">
         <v>1290</v>
       </c>
       <c r="T715" s="8"/>
@@ -41562,10 +41385,10 @@
       <c r="L716" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M716" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N716" s="25"/>
+      <c r="M716" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N716" s="26"/>
       <c r="O716" s="8" t="s">
         <v>59</v>
       </c>
@@ -41574,7 +41397,7 @@
       <c r="R716" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S716" s="25" t="n">
+      <c r="S716" s="26" t="n">
         <v>360</v>
       </c>
       <c r="T716" s="8"/>
@@ -41612,10 +41435,10 @@
       <c r="L717" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M717" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N717" s="25"/>
+      <c r="M717" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" s="26"/>
       <c r="O717" s="8" t="s">
         <v>59</v>
       </c>
@@ -41624,7 +41447,7 @@
       <c r="R717" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S717" s="25" t="n">
+      <c r="S717" s="26" t="n">
         <v>6037</v>
       </c>
       <c r="T717" s="8"/>
@@ -41662,10 +41485,10 @@
       <c r="L718" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M718" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N718" s="25"/>
+      <c r="M718" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" s="26"/>
       <c r="O718" s="8" t="s">
         <v>59</v>
       </c>
@@ -41674,7 +41497,7 @@
       <c r="R718" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S718" s="25" t="n">
+      <c r="S718" s="26" t="n">
         <v>1829</v>
       </c>
       <c r="T718" s="8"/>
@@ -41712,10 +41535,10 @@
       <c r="L719" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M719" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N719" s="25"/>
+      <c r="M719" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" s="26"/>
       <c r="O719" s="8" t="s">
         <v>59</v>
       </c>
@@ -41724,7 +41547,7 @@
       <c r="R719" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S719" s="25" t="n">
+      <c r="S719" s="26" t="n">
         <v>958</v>
       </c>
       <c r="T719" s="8"/>
@@ -41762,10 +41585,10 @@
       <c r="L720" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M720" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N720" s="25"/>
+      <c r="M720" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" s="26"/>
       <c r="O720" s="8" t="s">
         <v>59</v>
       </c>
@@ -41774,7 +41597,7 @@
       <c r="R720" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S720" s="25" t="n">
+      <c r="S720" s="26" t="n">
         <v>360</v>
       </c>
       <c r="T720" s="8"/>
@@ -41812,10 +41635,10 @@
       <c r="L721" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M721" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N721" s="25"/>
+      <c r="M721" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" s="26"/>
       <c r="O721" s="8" t="s">
         <v>59</v>
       </c>
@@ -41824,7 +41647,7 @@
       <c r="R721" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S721" s="25" t="n">
+      <c r="S721" s="26" t="n">
         <v>3782</v>
       </c>
       <c r="T721" s="8"/>
@@ -41862,10 +41685,10 @@
       <c r="L722" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M722" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N722" s="25"/>
+      <c r="M722" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" s="26"/>
       <c r="O722" s="8" t="s">
         <v>59</v>
       </c>
@@ -41874,7 +41697,7 @@
       <c r="R722" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S722" s="25" t="n">
+      <c r="S722" s="26" t="n">
         <v>225</v>
       </c>
       <c r="T722" s="8"/>
@@ -41912,10 +41735,10 @@
       <c r="L723" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M723" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N723" s="25"/>
+      <c r="M723" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" s="26"/>
       <c r="O723" s="8" t="s">
         <v>59</v>
       </c>
@@ -41924,7 +41747,7 @@
       <c r="R723" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S723" s="25" t="n">
+      <c r="S723" s="26" t="n">
         <v>699</v>
       </c>
       <c r="T723" s="8"/>
@@ -41990,86 +41813,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:151"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K84" activeCellId="0" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.924882629108"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.6056338028169"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.6244131455399"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.73239436619718"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6244131455399"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.32394366197183"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.16901408450704"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.169014084507"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68075117370892"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.9577464788732"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.8169014084507"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9577464788732"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.48826291079812"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.32394366197183"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1924882629108"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="44.6197183098592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.6995305164319"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.7370892018779"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3004694835681"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9295774647887"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="13.8732394366197"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.3802816901408"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.4694835680751"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="39.6666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5399061032864"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="45.4319248826291"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.3427230046948"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9859154929577"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4694835680751"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2535211267606"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="14.037558685446"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.6291079812207"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6338028169014"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="40.3943661971831"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.6338028169014"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
+    <row r="1" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="41" t="s">
         <v>347</v>
       </c>
     </row>
@@ -42103,29 +41928,29 @@
       <c r="K2" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="23" t="n">
+      <c r="M2" s="24" t="n">
         <v>200</v>
       </c>
-      <c r="N2" s="23" t="n">
+      <c r="N2" s="24" t="n">
         <v>100</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P2" s="9"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="26"/>
+      <c r="S2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -42157,29 +41982,29 @@
       <c r="K3" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="23" t="n">
+      <c r="M3" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="N3" s="23" t="n">
+      <c r="N3" s="24" t="n">
         <v>200</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P3" s="9"/>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="26"/>
+      <c r="S3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -42211,29 +42036,29 @@
       <c r="K4" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="23" t="n">
+      <c r="M4" s="24" t="n">
         <v>182</v>
       </c>
-      <c r="N4" s="23" t="n">
+      <c r="N4" s="24" t="n">
         <v>91</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="9"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="26"/>
+      <c r="S4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -42265,29 +42090,29 @@
       <c r="K5" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="23" t="n">
+      <c r="M5" s="24" t="n">
         <v>1392</v>
       </c>
-      <c r="N5" s="23" t="n">
+      <c r="N5" s="24" t="n">
         <v>696</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P5" s="9"/>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R5" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="26"/>
+      <c r="S5" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -42319,29 +42144,29 @@
       <c r="K6" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="23" t="n">
+      <c r="M6" s="24" t="n">
         <v>42920</v>
       </c>
-      <c r="N6" s="23" t="n">
+      <c r="N6" s="24" t="n">
         <v>21460</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P6" s="9"/>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R6" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="S6" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="26"/>
+      <c r="S6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -42373,29 +42198,29 @@
       <c r="K7" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="23" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="N7" s="23" t="n">
+      <c r="M7" s="24" t="n">
+        <v>121</v>
+      </c>
+      <c r="N7" s="24" t="n">
         <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="P7" s="9"/>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R7" s="14" t="n">
         <v>2.7</v>
       </c>
-      <c r="S7" s="25" t="n">
+      <c r="S7" s="26" t="n">
         <v>-0.500000000000014</v>
       </c>
-      <c r="T7" s="26"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -42427,29 +42252,29 @@
       <c r="K8" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="23" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="N8" s="23" t="n">
+      <c r="M8" s="24" t="n">
+        <v>121</v>
+      </c>
+      <c r="N8" s="24" t="n">
         <v>45</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>117</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R8" s="14" t="n">
         <v>2.7</v>
       </c>
-      <c r="S8" s="25" t="n">
+      <c r="S8" s="26" t="n">
         <v>-0.500000000000014</v>
       </c>
-      <c r="T8" s="26"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -42481,29 +42306,29 @@
       <c r="K9" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="23" t="n">
+      <c r="M9" s="24" t="n">
         <v>153</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="N9" s="24" t="n">
         <v>102</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R9" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="26" t="s">
+      <c r="S9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -42537,29 +42362,29 @@
       <c r="K10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="23" t="n">
-        <v>337.5</v>
-      </c>
-      <c r="N10" s="23" t="n">
+      <c r="M10" s="24" t="n">
+        <v>337</v>
+      </c>
+      <c r="N10" s="24" t="n">
         <v>225</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R10" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S10" s="25" t="n">
+      <c r="S10" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -42593,29 +42418,29 @@
       <c r="K11" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="23" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="N11" s="23" t="n">
+      <c r="M11" s="24" t="n">
+        <v>181</v>
+      </c>
+      <c r="N11" s="24" t="n">
         <v>121</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P11" s="9"/>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R11" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S11" s="25" t="n">
+      <c r="S11" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T11" s="26"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -42647,29 +42472,29 @@
       <c r="K12" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="23" t="n">
+      <c r="M12" s="24" t="n">
         <v>165</v>
       </c>
-      <c r="N12" s="23" t="n">
+      <c r="N12" s="24" t="n">
         <v>110</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P12" s="9"/>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R12" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S12" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="26"/>
+      <c r="S12" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -42701,29 +42526,29 @@
       <c r="K13" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="23" t="n">
-        <v>7462.5</v>
-      </c>
-      <c r="N13" s="23" t="n">
+      <c r="M13" s="24" t="n">
+        <v>7462</v>
+      </c>
+      <c r="N13" s="24" t="n">
         <v>4975</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P13" s="9"/>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S13" s="25" t="n">
+      <c r="S13" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T13" s="26"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -42755,29 +42580,29 @@
       <c r="K14" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="23" t="n">
-        <v>2206.5</v>
-      </c>
-      <c r="N14" s="23" t="n">
+      <c r="M14" s="24" t="n">
+        <v>2216</v>
+      </c>
+      <c r="N14" s="24" t="n">
         <v>1471</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P14" s="9"/>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R14" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S14" s="25" t="n">
+      <c r="S14" s="26" t="n">
         <v>9.5</v>
       </c>
-      <c r="T14" s="26"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -42809,29 +42634,29 @@
       <c r="K15" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M15" s="23" t="n">
+      <c r="M15" s="24" t="n">
         <v>3537</v>
       </c>
-      <c r="N15" s="23" t="n">
+      <c r="N15" s="24" t="n">
         <v>2358</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="9"/>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S15" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="26"/>
+      <c r="S15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -42863,29 +42688,29 @@
       <c r="K16" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="23" t="n">
-        <v>208.5</v>
-      </c>
-      <c r="N16" s="23" t="n">
+      <c r="M16" s="24" t="n">
+        <v>208</v>
+      </c>
+      <c r="N16" s="24" t="n">
         <v>139</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="9"/>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S16" s="25" t="n">
+      <c r="S16" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T16" s="26"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -42917,29 +42742,29 @@
       <c r="K17" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="23" t="n">
-        <v>1456.5</v>
-      </c>
-      <c r="N17" s="23" t="n">
+      <c r="M17" s="24" t="n">
+        <v>1456</v>
+      </c>
+      <c r="N17" s="24" t="n">
         <v>971</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P17" s="9"/>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R17" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S17" s="25" t="n">
+      <c r="S17" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T17" s="26"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -42971,29 +42796,29 @@
       <c r="K18" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="23" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="N18" s="23" t="n">
+      <c r="M18" s="24" t="n">
+        <v>307</v>
+      </c>
+      <c r="N18" s="24" t="n">
         <v>205</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P18" s="9"/>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R18" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S18" s="25" t="n">
+      <c r="S18" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T18" s="26"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -43025,29 +42850,29 @@
       <c r="K19" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="23" t="n">
-        <v>1252.5</v>
-      </c>
-      <c r="N19" s="23" t="n">
+      <c r="M19" s="24" t="n">
+        <v>1252</v>
+      </c>
+      <c r="N19" s="24" t="n">
         <v>835</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P19" s="9"/>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R19" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S19" s="25" t="n">
+      <c r="S19" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T19" s="26"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -43079,29 +42904,29 @@
       <c r="K20" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="23" t="n">
-        <v>1084.5</v>
-      </c>
-      <c r="N20" s="23" t="n">
+      <c r="M20" s="24" t="n">
+        <v>1084</v>
+      </c>
+      <c r="N20" s="24" t="n">
         <v>723</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P20" s="9"/>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S20" s="25" t="n">
+      <c r="S20" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T20" s="26"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -43133,29 +42958,29 @@
       <c r="K21" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="23" t="n">
-        <v>1012.5</v>
-      </c>
-      <c r="N21" s="23" t="n">
+      <c r="M21" s="24" t="n">
+        <v>1012</v>
+      </c>
+      <c r="N21" s="24" t="n">
         <v>675</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P21" s="9"/>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R21" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S21" s="25" t="n">
+      <c r="S21" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T21" s="26"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -43187,29 +43012,29 @@
       <c r="K22" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="23" t="n">
+      <c r="M22" s="24" t="n">
         <v>1250</v>
       </c>
-      <c r="N22" s="23" t="n">
+      <c r="N22" s="24" t="n">
         <v>25</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P22" s="9"/>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R22" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S22" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="26"/>
+      <c r="S22" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -43241,29 +43066,29 @@
       <c r="K23" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="23" t="n">
+      <c r="M23" s="24" t="n">
         <v>9125</v>
       </c>
-      <c r="N23" s="23" t="n">
+      <c r="N23" s="24" t="n">
         <v>182.5</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R23" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S23" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="26"/>
+      <c r="S23" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -43295,29 +43120,29 @@
       <c r="K24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="23" t="n">
+      <c r="M24" s="24" t="n">
         <v>4500</v>
       </c>
-      <c r="N24" s="23" t="n">
+      <c r="N24" s="24" t="n">
         <v>90</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P24" s="9"/>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S24" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="26"/>
+      <c r="S24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -43349,29 +43174,29 @@
       <c r="K25" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M25" s="23" t="n">
+      <c r="M25" s="24" t="n">
         <v>1500</v>
       </c>
-      <c r="N25" s="23" t="n">
+      <c r="N25" s="24" t="n">
         <v>30</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P25" s="9"/>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R25" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="26"/>
+      <c r="S25" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -43403,29 +43228,29 @@
       <c r="K26" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="23" t="n">
+      <c r="M26" s="24" t="n">
         <v>900</v>
       </c>
-      <c r="N26" s="23" t="n">
+      <c r="N26" s="24" t="n">
         <v>18</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R26" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S26" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="26"/>
+      <c r="S26" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -43457,29 +43282,29 @@
       <c r="K27" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="23" t="n">
+      <c r="M27" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="N27" s="23" t="n">
+      <c r="N27" s="24" t="n">
         <v>7</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P27" s="9"/>
-      <c r="Q27" s="24" t="s">
+      <c r="Q27" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S27" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="26"/>
+      <c r="S27" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -43511,29 +43336,29 @@
       <c r="K28" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="23" t="n">
+      <c r="M28" s="24" t="n">
         <v>2800</v>
       </c>
-      <c r="N28" s="23" t="n">
+      <c r="N28" s="24" t="n">
         <v>56</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P28" s="9"/>
-      <c r="Q28" s="24" t="s">
+      <c r="Q28" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R28" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S28" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="26"/>
+      <c r="S28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -43565,29 +43390,29 @@
       <c r="K29" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="23" t="n">
-        <v>6832.5</v>
-      </c>
-      <c r="N29" s="23" t="n">
+      <c r="M29" s="24" t="n">
+        <v>6832</v>
+      </c>
+      <c r="N29" s="24" t="n">
         <v>136.65</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P29" s="9"/>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R29" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S29" s="25" t="n">
+      <c r="S29" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T29" s="26"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -43619,29 +43444,29 @@
       <c r="K30" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="L30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="23" t="n">
+      <c r="M30" s="24" t="n">
         <v>40000</v>
       </c>
-      <c r="N30" s="23" t="n">
+      <c r="N30" s="24" t="n">
         <v>800</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R30" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S30" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="26"/>
+      <c r="S30" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -43673,29 +43498,29 @@
       <c r="K31" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="23" t="n">
+      <c r="M31" s="24" t="n">
         <v>6000</v>
       </c>
-      <c r="N31" s="23" t="n">
+      <c r="N31" s="24" t="n">
         <v>120</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P31" s="9"/>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R31" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="S31" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="26"/>
+      <c r="S31" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -43727,29 +43552,29 @@
       <c r="K32" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="23" t="n">
-        <v>554.4</v>
-      </c>
-      <c r="N32" s="23" t="n">
+      <c r="M32" s="24" t="n">
+        <v>554</v>
+      </c>
+      <c r="N32" s="24" t="n">
         <v>462</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P32" s="9"/>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R32" s="14" t="n">
         <v>1.2</v>
       </c>
-      <c r="S32" s="25" t="n">
+      <c r="S32" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
-      <c r="T32" s="26"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -43781,29 +43606,29 @@
       <c r="K33" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="23" t="n">
+      <c r="M33" s="24" t="n">
         <v>40620</v>
       </c>
-      <c r="N33" s="23" t="n">
+      <c r="N33" s="24" t="n">
         <v>2708</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="P33" s="9"/>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S33" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="26"/>
+      <c r="S33" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -43835,29 +43660,29 @@
       <c r="K34" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M34" s="23" t="n">
+      <c r="M34" s="24" t="n">
         <v>720</v>
       </c>
-      <c r="N34" s="23" t="n">
+      <c r="N34" s="24" t="n">
         <v>48</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="P34" s="9"/>
-      <c r="Q34" s="24" t="s">
+      <c r="Q34" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R34" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S34" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="26"/>
+      <c r="S34" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -43889,29 +43714,29 @@
       <c r="K35" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="23" t="n">
-        <v>1762.5</v>
-      </c>
-      <c r="N35" s="23" t="n">
+      <c r="M35" s="24" t="n">
+        <v>1762</v>
+      </c>
+      <c r="N35" s="24" t="n">
         <v>23.5</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>59</v>
       </c>
       <c r="P35" s="9"/>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="25" t="s">
         <v>24</v>
       </c>
       <c r="R35" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="S35" s="25" t="n">
+      <c r="S35" s="26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="T35" s="26"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -43943,31 +43768,31 @@
       <c r="K36" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="23" t="n">
+      <c r="M36" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="N36" s="23" t="n">
+      <c r="N36" s="24" t="n">
         <v>200</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="24" t="s">
+      <c r="Q36" s="25" t="s">
         <v>38</v>
       </c>
       <c r="R36" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S36" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="26"/>
-    </row>
-    <row r="37" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S36" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>10</v>
       </c>
@@ -44000,10 +43825,10 @@
       <c r="L37" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="25" t="n">
+      <c r="M37" s="42" t="n">
         <v>450</v>
       </c>
-      <c r="N37" s="25" t="n">
+      <c r="N37" s="26" t="n">
         <v>3</v>
       </c>
       <c r="O37" s="8" t="s">
@@ -44016,21 +43841,12 @@
       <c r="R37" s="31" t="n">
         <v>150</v>
       </c>
-      <c r="S37" s="25" t="n">
+      <c r="S37" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="8"/>
-      <c r="AMB37" s="0"/>
-      <c r="AMC37" s="0"/>
-      <c r="AMD37" s="0"/>
-      <c r="AME37" s="0"/>
-      <c r="AMF37" s="0"/>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
-    </row>
-    <row r="38" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>11</v>
       </c>
@@ -44063,10 +43879,10 @@
       <c r="L38" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="25" t="n">
+      <c r="M38" s="42" t="n">
         <v>2000</v>
       </c>
-      <c r="N38" s="25" t="n">
+      <c r="N38" s="26" t="n">
         <v>2</v>
       </c>
       <c r="O38" s="8" t="s">
@@ -44079,21 +43895,12 @@
       <c r="R38" s="31" t="n">
         <v>1000</v>
       </c>
-      <c r="S38" s="25" t="n">
+      <c r="S38" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T38" s="8"/>
-      <c r="AMB38" s="0"/>
-      <c r="AMC38" s="0"/>
-      <c r="AMD38" s="0"/>
-      <c r="AME38" s="0"/>
-      <c r="AMF38" s="0"/>
-      <c r="AMG38" s="0"/>
-      <c r="AMH38" s="0"/>
-      <c r="AMI38" s="0"/>
-      <c r="AMJ38" s="0"/>
-    </row>
-    <row r="39" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>12</v>
       </c>
@@ -44126,10 +43933,10 @@
       <c r="L39" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="25" t="n">
-        <v>17687.5</v>
-      </c>
-      <c r="N39" s="25" t="n">
+      <c r="M39" s="42" t="n">
+        <v>17693</v>
+      </c>
+      <c r="N39" s="26" t="n">
         <v>17.6875</v>
       </c>
       <c r="O39" s="8" t="s">
@@ -44142,21 +43949,12 @@
       <c r="R39" s="31" t="n">
         <v>1000</v>
       </c>
-      <c r="S39" s="25" t="n">
+      <c r="S39" s="26" t="n">
         <v>5.5</v>
       </c>
       <c r="T39" s="8"/>
-      <c r="AMB39" s="0"/>
-      <c r="AMC39" s="0"/>
-      <c r="AMD39" s="0"/>
-      <c r="AME39" s="0"/>
-      <c r="AMF39" s="0"/>
-      <c r="AMG39" s="0"/>
-      <c r="AMH39" s="0"/>
-      <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
-    </row>
-    <row r="40" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>13</v>
       </c>
@@ -44189,10 +43987,10 @@
       <c r="L40" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="25" t="n">
+      <c r="M40" s="42" t="n">
         <v>35000</v>
       </c>
-      <c r="N40" s="25" t="n">
+      <c r="N40" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O40" s="8" t="s">
@@ -44205,19 +44003,10 @@
       <c r="R40" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="S40" s="25" t="n">
+      <c r="S40" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="8"/>
-      <c r="AMB40" s="0"/>
-      <c r="AMC40" s="0"/>
-      <c r="AMD40" s="0"/>
-      <c r="AME40" s="0"/>
-      <c r="AMF40" s="0"/>
-      <c r="AMG40" s="0"/>
-      <c r="AMH40" s="0"/>
-      <c r="AMI40" s="0"/>
-      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -44252,10 +44041,10 @@
       <c r="L41" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="25" t="n">
+      <c r="M41" s="42" t="n">
         <v>54750</v>
       </c>
-      <c r="N41" s="25" t="n">
+      <c r="N41" s="26" t="n">
         <v>109.5</v>
       </c>
       <c r="O41" s="8" t="s">
@@ -44268,7 +44057,7 @@
       <c r="R41" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="S41" s="25" t="n">
+      <c r="S41" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="8"/>
@@ -44306,10 +44095,10 @@
       <c r="L42" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="25" t="n">
+      <c r="M42" s="42" t="n">
         <v>2050</v>
       </c>
-      <c r="N42" s="25" t="n">
+      <c r="N42" s="26" t="n">
         <v>205</v>
       </c>
       <c r="O42" s="8" t="s">
@@ -44322,7 +44111,7 @@
       <c r="R42" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S42" s="25" t="n">
+      <c r="S42" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T42" s="8" t="s">
@@ -44362,10 +44151,10 @@
       <c r="L43" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="25" t="n">
+      <c r="M43" s="42" t="n">
         <v>11220</v>
       </c>
-      <c r="N43" s="25" t="n">
+      <c r="N43" s="26" t="n">
         <v>1122</v>
       </c>
       <c r="O43" s="8" t="s">
@@ -44378,7 +44167,7 @@
       <c r="R43" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S43" s="25" t="n">
+      <c r="S43" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T43" s="8" t="s">
@@ -44418,10 +44207,10 @@
       <c r="L44" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="25" t="n">
+      <c r="M44" s="42" t="n">
         <v>2200</v>
       </c>
-      <c r="N44" s="25" t="n">
+      <c r="N44" s="26" t="n">
         <v>220</v>
       </c>
       <c r="O44" s="8" t="s">
@@ -44434,7 +44223,7 @@
       <c r="R44" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S44" s="25" t="n">
+      <c r="S44" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="8"/>
@@ -44472,10 +44261,10 @@
       <c r="L45" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M45" s="25" t="n">
+      <c r="M45" s="42" t="n">
         <v>200</v>
       </c>
-      <c r="N45" s="25" t="n">
+      <c r="N45" s="26" t="n">
         <v>20</v>
       </c>
       <c r="O45" s="8" t="s">
@@ -44488,7 +44277,7 @@
       <c r="R45" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S45" s="25" t="n">
+      <c r="S45" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="8"/>
@@ -44526,10 +44315,10 @@
       <c r="L46" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="25" t="n">
+      <c r="M46" s="42" t="n">
         <v>1070</v>
       </c>
-      <c r="N46" s="25" t="n">
+      <c r="N46" s="26" t="n">
         <v>107</v>
       </c>
       <c r="O46" s="8" t="s">
@@ -44542,7 +44331,7 @@
       <c r="R46" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S46" s="25" t="n">
+      <c r="S46" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T46" s="8"/>
@@ -44580,10 +44369,10 @@
       <c r="L47" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="25" t="n">
+      <c r="M47" s="42" t="n">
         <v>5180</v>
       </c>
-      <c r="N47" s="25" t="n">
+      <c r="N47" s="26" t="n">
         <v>370</v>
       </c>
       <c r="O47" s="8" t="s">
@@ -44596,7 +44385,7 @@
       <c r="R47" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="S47" s="25" t="n">
+      <c r="S47" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="8"/>
@@ -44634,10 +44423,10 @@
       <c r="L48" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="25" t="n">
+      <c r="M48" s="42" t="n">
         <v>882</v>
       </c>
-      <c r="N48" s="25" t="n">
+      <c r="N48" s="26" t="n">
         <v>63</v>
       </c>
       <c r="O48" s="8" t="s">
@@ -44650,7 +44439,7 @@
       <c r="R48" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="S48" s="25" t="n">
+      <c r="S48" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T48" s="8"/>
@@ -44688,10 +44477,10 @@
       <c r="L49" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M49" s="25" t="n">
+      <c r="M49" s="42" t="n">
         <v>540</v>
       </c>
-      <c r="N49" s="25" t="n">
+      <c r="N49" s="26" t="n">
         <v>45</v>
       </c>
       <c r="O49" s="8" t="s">
@@ -44704,7 +44493,7 @@
       <c r="R49" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S49" s="25" t="n">
+      <c r="S49" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T49" s="8"/>
@@ -44742,10 +44531,10 @@
       <c r="L50" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M50" s="25" t="n">
+      <c r="M50" s="42" t="n">
         <v>10132</v>
       </c>
-      <c r="N50" s="25" t="n">
+      <c r="N50" s="26" t="n">
         <v>298</v>
       </c>
       <c r="O50" s="8" t="s">
@@ -44758,7 +44547,7 @@
       <c r="R50" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="S50" s="25" t="n">
+      <c r="S50" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T50" s="8" t="s">
@@ -44798,10 +44587,10 @@
       <c r="L51" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M51" s="25" t="n">
+      <c r="M51" s="42" t="n">
         <v>21200</v>
       </c>
-      <c r="N51" s="25" t="n">
+      <c r="N51" s="26" t="n">
         <v>2120</v>
       </c>
       <c r="O51" s="8" t="s">
@@ -44814,7 +44603,7 @@
       <c r="R51" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S51" s="25" t="n">
+      <c r="S51" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T51" s="8"/>
@@ -44852,10 +44641,10 @@
       <c r="L52" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="25" t="n">
+      <c r="M52" s="42" t="n">
         <v>11680</v>
       </c>
-      <c r="N52" s="25" t="n">
+      <c r="N52" s="26" t="n">
         <v>1168</v>
       </c>
       <c r="O52" s="8" t="s">
@@ -44868,7 +44657,7 @@
       <c r="R52" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S52" s="25" t="n">
+      <c r="S52" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T52" s="8"/>
@@ -44906,10 +44695,10 @@
       <c r="L53" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="25" t="n">
+      <c r="M53" s="42" t="n">
         <v>5140</v>
       </c>
-      <c r="N53" s="25" t="n">
+      <c r="N53" s="26" t="n">
         <v>514</v>
       </c>
       <c r="O53" s="8" t="s">
@@ -44922,7 +44711,7 @@
       <c r="R53" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S53" s="25" t="n">
+      <c r="S53" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T53" s="8"/>
@@ -44960,10 +44749,10 @@
       <c r="L54" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M54" s="25" t="n">
+      <c r="M54" s="42" t="n">
         <v>3240</v>
       </c>
-      <c r="N54" s="25" t="n">
+      <c r="N54" s="26" t="n">
         <v>270</v>
       </c>
       <c r="O54" s="8" t="s">
@@ -44976,7 +44765,7 @@
       <c r="R54" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S54" s="25" t="n">
+      <c r="S54" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T54" s="8"/>
@@ -45014,10 +44803,10 @@
       <c r="L55" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="25" t="n">
+      <c r="M55" s="42" t="n">
         <v>840</v>
       </c>
-      <c r="N55" s="25" t="n">
+      <c r="N55" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O55" s="8" t="s">
@@ -45030,7 +44819,7 @@
       <c r="R55" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S55" s="25" t="n">
+      <c r="S55" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T55" s="8"/>
@@ -45068,10 +44857,10 @@
       <c r="L56" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M56" s="25" t="n">
+      <c r="M56" s="42" t="n">
         <v>192</v>
       </c>
-      <c r="N56" s="25" t="n">
+      <c r="N56" s="26" t="n">
         <v>16</v>
       </c>
       <c r="O56" s="8" t="s">
@@ -45084,7 +44873,7 @@
       <c r="R56" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S56" s="25" t="n">
+      <c r="S56" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T56" s="8"/>
@@ -45122,10 +44911,10 @@
       <c r="L57" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="25" t="n">
+      <c r="M57" s="42" t="n">
         <v>1152</v>
       </c>
-      <c r="N57" s="25" t="n">
+      <c r="N57" s="26" t="n">
         <v>96</v>
       </c>
       <c r="O57" s="8" t="s">
@@ -45138,12 +44927,12 @@
       <c r="R57" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="S57" s="25" t="n">
+      <c r="S57" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>21</v>
       </c>
@@ -45170,16 +44959,16 @@
       <c r="J58" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K58" s="28" t="s">
-        <v>348</v>
+      <c r="K58" s="32" t="s">
+        <v>318</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M58" s="25" t="n">
+      <c r="M58" s="42" t="n">
         <v>780</v>
       </c>
-      <c r="N58" s="25" t="n">
+      <c r="N58" s="26" t="n">
         <v>60</v>
       </c>
       <c r="O58" s="8" t="s">
@@ -45192,12 +44981,12 @@
       <c r="R58" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S58" s="25" t="n">
+      <c r="S58" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>22</v>
       </c>
@@ -45224,16 +45013,16 @@
       <c r="J59" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K59" s="28" t="s">
-        <v>349</v>
+      <c r="K59" s="32" t="s">
+        <v>319</v>
       </c>
       <c r="L59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M59" s="25" t="n">
+      <c r="M59" s="42" t="n">
         <v>646</v>
       </c>
-      <c r="N59" s="25" t="n">
+      <c r="N59" s="26" t="n">
         <v>19</v>
       </c>
       <c r="O59" s="8" t="s">
@@ -45246,7 +45035,7 @@
       <c r="R59" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="S59" s="25" t="n">
+      <c r="S59" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T59" s="8"/>
@@ -45284,10 +45073,10 @@
       <c r="L60" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M60" s="25" t="n">
+      <c r="M60" s="42" t="n">
         <v>384</v>
       </c>
-      <c r="N60" s="25" t="n">
+      <c r="N60" s="26" t="n">
         <v>48</v>
       </c>
       <c r="O60" s="8" t="s">
@@ -45300,7 +45089,7 @@
       <c r="R60" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S60" s="25" t="n">
+      <c r="S60" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T60" s="8"/>
@@ -45338,10 +45127,10 @@
       <c r="L61" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M61" s="25" t="n">
+      <c r="M61" s="42" t="n">
         <v>1160</v>
       </c>
-      <c r="N61" s="25" t="n">
+      <c r="N61" s="26" t="n">
         <v>145</v>
       </c>
       <c r="O61" s="8" t="s">
@@ -45354,7 +45143,7 @@
       <c r="R61" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S61" s="25" t="n">
+      <c r="S61" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="8"/>
@@ -45392,10 +45181,10 @@
       <c r="L62" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M62" s="25" t="n">
-        <v>560</v>
-      </c>
-      <c r="N62" s="25" t="n">
+      <c r="M62" s="42" t="n">
+        <v>651</v>
+      </c>
+      <c r="N62" s="26" t="n">
         <v>70</v>
       </c>
       <c r="O62" s="8" t="s">
@@ -45408,7 +45197,7 @@
       <c r="R62" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="S62" s="25" t="n">
+      <c r="S62" s="26" t="n">
         <v>91</v>
       </c>
       <c r="T62" s="8"/>
@@ -45446,10 +45235,10 @@
       <c r="L63" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="25" t="n">
+      <c r="M63" s="42" t="n">
         <v>6060</v>
       </c>
-      <c r="N63" s="25" t="n">
+      <c r="N63" s="26" t="n">
         <v>606</v>
       </c>
       <c r="O63" s="8" t="s">
@@ -45462,12 +45251,12 @@
       <c r="R63" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S63" s="25" t="n">
+      <c r="S63" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>26</v>
       </c>
@@ -45494,16 +45283,16 @@
       <c r="J64" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K64" s="28" t="s">
-        <v>350</v>
+      <c r="K64" s="32" t="s">
+        <v>348</v>
       </c>
       <c r="L64" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M64" s="25" t="n">
+      <c r="M64" s="42" t="n">
         <v>1800</v>
       </c>
-      <c r="N64" s="25" t="n">
+      <c r="N64" s="26" t="n">
         <v>180</v>
       </c>
       <c r="O64" s="8" t="s">
@@ -45516,12 +45305,12 @@
       <c r="R64" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S64" s="25" t="n">
+      <c r="S64" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>26</v>
       </c>
@@ -45548,16 +45337,16 @@
       <c r="J65" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K65" s="28" t="s">
-        <v>350</v>
+      <c r="K65" s="32" t="s">
+        <v>348</v>
       </c>
       <c r="L65" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="25" t="n">
+      <c r="M65" s="42" t="n">
         <v>1050</v>
       </c>
-      <c r="N65" s="25" t="n">
+      <c r="N65" s="26" t="n">
         <v>105</v>
       </c>
       <c r="O65" s="8" t="s">
@@ -45570,12 +45359,12 @@
       <c r="R65" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S65" s="25" t="n">
+      <c r="S65" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>27</v>
       </c>
@@ -45602,16 +45391,16 @@
       <c r="J66" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K66" s="28" t="s">
-        <v>350</v>
+      <c r="K66" s="32" t="s">
+        <v>348</v>
       </c>
       <c r="L66" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M66" s="25" t="n">
+      <c r="M66" s="42" t="n">
         <v>900</v>
       </c>
-      <c r="N66" s="25" t="n">
+      <c r="N66" s="26" t="n">
         <v>90</v>
       </c>
       <c r="O66" s="8" t="s">
@@ -45624,12 +45413,12 @@
       <c r="R66" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S66" s="25" t="n">
+      <c r="S66" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>28</v>
       </c>
@@ -45656,16 +45445,16 @@
       <c r="J67" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K67" s="28" t="s">
-        <v>350</v>
+      <c r="K67" s="32" t="s">
+        <v>348</v>
       </c>
       <c r="L67" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M67" s="25" t="n">
+      <c r="M67" s="42" t="n">
         <v>800</v>
       </c>
-      <c r="N67" s="25" t="n">
+      <c r="N67" s="26" t="n">
         <v>80</v>
       </c>
       <c r="O67" s="8" t="s">
@@ -45678,7 +45467,7 @@
       <c r="R67" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="S67" s="25" t="n">
+      <c r="S67" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T67" s="8"/>
@@ -45716,10 +45505,10 @@
       <c r="L68" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="25"/>
+      <c r="M68" s="42" t="n">
+        <v>1142</v>
+      </c>
+      <c r="N68" s="26"/>
       <c r="O68" s="8" t="s">
         <v>40</v>
       </c>
@@ -45728,7 +45517,7 @@
       <c r="R68" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S68" s="25" t="n">
+      <c r="S68" s="26" t="n">
         <v>1142</v>
       </c>
       <c r="T68" s="8"/>
@@ -45766,10 +45555,10 @@
       <c r="L69" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M69" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="25"/>
+      <c r="M69" s="42" t="n">
+        <v>2126</v>
+      </c>
+      <c r="N69" s="26"/>
       <c r="O69" s="8" t="s">
         <v>40</v>
       </c>
@@ -45778,7 +45567,7 @@
       <c r="R69" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S69" s="25" t="n">
+      <c r="S69" s="26" t="n">
         <v>2126</v>
       </c>
       <c r="T69" s="8"/>
@@ -45816,10 +45605,10 @@
       <c r="L70" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M70" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="25"/>
+      <c r="M70" s="42" t="n">
+        <v>1396</v>
+      </c>
+      <c r="N70" s="26"/>
       <c r="O70" s="8" t="s">
         <v>40</v>
       </c>
@@ -45828,7 +45617,7 @@
       <c r="R70" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S70" s="25" t="n">
+      <c r="S70" s="26" t="n">
         <v>1396</v>
       </c>
       <c r="T70" s="8"/>
@@ -45866,10 +45655,10 @@
       <c r="L71" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="25"/>
+      <c r="M71" s="42" t="n">
+        <v>240</v>
+      </c>
+      <c r="N71" s="26"/>
       <c r="O71" s="8" t="s">
         <v>40</v>
       </c>
@@ -45878,7 +45667,7 @@
       <c r="R71" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S71" s="25" t="n">
+      <c r="S71" s="26" t="n">
         <v>240</v>
       </c>
       <c r="T71" s="8"/>
@@ -45916,10 +45705,10 @@
       <c r="L72" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M72" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="25"/>
+      <c r="M72" s="42" t="n">
+        <v>1160</v>
+      </c>
+      <c r="N72" s="26"/>
       <c r="O72" s="8" t="s">
         <v>40</v>
       </c>
@@ -45928,7 +45717,7 @@
       <c r="R72" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S72" s="25" t="n">
+      <c r="S72" s="26" t="n">
         <v>1160</v>
       </c>
       <c r="T72" s="8"/>
@@ -45966,10 +45755,10 @@
       <c r="L73" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M73" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="25"/>
+      <c r="M73" s="42" t="n">
+        <v>438</v>
+      </c>
+      <c r="N73" s="26"/>
       <c r="O73" s="8" t="s">
         <v>40</v>
       </c>
@@ -45978,7 +45767,7 @@
       <c r="R73" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="25" t="n">
+      <c r="S73" s="26" t="n">
         <v>438</v>
       </c>
       <c r="T73" s="8"/>
@@ -46016,10 +45805,10 @@
       <c r="L74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M74" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" s="25"/>
+      <c r="M74" s="42" t="n">
+        <v>600</v>
+      </c>
+      <c r="N74" s="26"/>
       <c r="O74" s="8" t="s">
         <v>40</v>
       </c>
@@ -46028,7 +45817,7 @@
       <c r="R74" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S74" s="25" t="n">
+      <c r="S74" s="26" t="n">
         <v>600</v>
       </c>
       <c r="T74" s="8"/>
@@ -46066,10 +45855,10 @@
       <c r="L75" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="25" t="n">
+      <c r="M75" s="42" t="n">
         <v>9680</v>
       </c>
-      <c r="N75" s="25" t="n">
+      <c r="N75" s="26" t="n">
         <v>88</v>
       </c>
       <c r="O75" s="8" t="s">
@@ -46082,7 +45871,7 @@
       <c r="R75" s="31" t="n">
         <v>110</v>
       </c>
-      <c r="S75" s="25" t="n">
+      <c r="S75" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T75" s="8"/>
@@ -46114,16 +45903,16 @@
       <c r="J76" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K76" s="32" t="s">
+      <c r="K76" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L76" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M76" s="25" t="n">
-        <v>103426.5</v>
-      </c>
-      <c r="N76" s="25" t="n">
+      <c r="M76" s="42" t="n">
+        <v>103426</v>
+      </c>
+      <c r="N76" s="26" t="n">
         <v>10887</v>
       </c>
       <c r="O76" s="8" t="s">
@@ -46136,7 +45925,7 @@
       <c r="R76" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S76" s="25" t="n">
+      <c r="S76" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T76" s="8"/>
@@ -46168,16 +45957,16 @@
       <c r="J77" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K77" s="32" t="s">
+      <c r="K77" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L77" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M77" s="25" t="n">
-        <v>379306.5</v>
-      </c>
-      <c r="N77" s="25" t="n">
+      <c r="M77" s="42" t="n">
+        <v>379306</v>
+      </c>
+      <c r="N77" s="26" t="n">
         <v>39927</v>
       </c>
       <c r="O77" s="8" t="s">
@@ -46190,7 +45979,7 @@
       <c r="R77" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S77" s="25" t="n">
+      <c r="S77" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T77" s="8"/>
@@ -46222,16 +46011,16 @@
       <c r="J78" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K78" s="32" t="s">
+      <c r="K78" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L78" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M78" s="25" t="n">
+      <c r="M78" s="42" t="n">
         <v>7600</v>
       </c>
-      <c r="N78" s="25" t="n">
+      <c r="N78" s="26" t="n">
         <v>800</v>
       </c>
       <c r="O78" s="8" t="s">
@@ -46244,7 +46033,7 @@
       <c r="R78" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S78" s="25" t="n">
+      <c r="S78" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T78" s="8"/>
@@ -46276,16 +46065,16 @@
       <c r="J79" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K79" s="32" t="s">
+      <c r="K79" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L79" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M79" s="25" t="n">
-        <v>4655</v>
-      </c>
-      <c r="N79" s="25" t="n">
+      <c r="M79" s="42" t="n">
+        <v>4855</v>
+      </c>
+      <c r="N79" s="26" t="n">
         <v>490</v>
       </c>
       <c r="O79" s="8" t="s">
@@ -46298,7 +46087,7 @@
       <c r="R79" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S79" s="25" t="n">
+      <c r="S79" s="26" t="n">
         <v>200</v>
       </c>
       <c r="T79" s="8"/>
@@ -46330,16 +46119,16 @@
       <c r="J80" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K80" s="32" t="s">
+      <c r="K80" s="28" t="s">
         <v>327</v>
       </c>
       <c r="L80" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="25" t="n">
+      <c r="M80" s="42" t="n">
         <v>36290</v>
       </c>
-      <c r="N80" s="25" t="n">
+      <c r="N80" s="26" t="n">
         <v>3820</v>
       </c>
       <c r="O80" s="8" t="s">
@@ -46352,7 +46141,7 @@
       <c r="R80" s="31" t="n">
         <v>9.5</v>
       </c>
-      <c r="S80" s="25" t="n">
+      <c r="S80" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T80" s="8"/>
@@ -46384,16 +46173,16 @@
       <c r="J81" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K81" s="32" t="s">
+      <c r="K81" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L81" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" s="25"/>
+      <c r="M81" s="42" t="n">
+        <v>300</v>
+      </c>
+      <c r="N81" s="26"/>
       <c r="O81" s="8" t="s">
         <v>40</v>
       </c>
@@ -46402,7 +46191,7 @@
       <c r="R81" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S81" s="25" t="n">
+      <c r="S81" s="26" t="n">
         <v>300</v>
       </c>
       <c r="T81" s="8"/>
@@ -46434,16 +46223,16 @@
       <c r="J82" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K82" s="32" t="s">
+      <c r="K82" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L82" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="25"/>
+      <c r="M82" s="42" t="n">
+        <v>750</v>
+      </c>
+      <c r="N82" s="26"/>
       <c r="O82" s="8" t="s">
         <v>40</v>
       </c>
@@ -46452,7 +46241,7 @@
       <c r="R82" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S82" s="25" t="n">
+      <c r="S82" s="26" t="n">
         <v>750</v>
       </c>
       <c r="T82" s="8"/>
@@ -46484,16 +46273,16 @@
       <c r="J83" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K83" s="32" t="s">
+      <c r="K83" s="28" t="s">
         <v>329</v>
       </c>
       <c r="L83" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M83" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="25"/>
+      <c r="M83" s="42" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N83" s="26"/>
       <c r="O83" s="8" t="s">
         <v>40</v>
       </c>
@@ -46502,12 +46291,12 @@
       <c r="R83" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S83" s="25" t="n">
+      <c r="S83" s="26" t="n">
         <v>1350</v>
       </c>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>34</v>
       </c>
@@ -46534,16 +46323,16 @@
       <c r="J84" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K84" s="32" t="s">
-        <v>330</v>
+      <c r="K84" s="43" t="s">
+        <v>349</v>
       </c>
       <c r="L84" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M84" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" s="25" t="n">
+      <c r="M84" s="42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N84" s="26" t="n">
         <v>4000</v>
       </c>
       <c r="O84" s="8" t="s">
@@ -46556,7 +46345,7 @@
       <c r="R84" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="25" t="n">
+      <c r="S84" s="26" t="n">
         <v>1000</v>
       </c>
       <c r="T84" s="8"/>
@@ -46588,16 +46377,16 @@
       <c r="J85" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K85" s="32" t="s">
+      <c r="K85" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L85" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="25" t="n">
-        <v>1171.2</v>
-      </c>
-      <c r="N85" s="25" t="n">
+      <c r="M85" s="42" t="n">
+        <v>1171</v>
+      </c>
+      <c r="N85" s="26" t="n">
         <v>36.6</v>
       </c>
       <c r="O85" s="8" t="s">
@@ -46610,7 +46399,7 @@
       <c r="R85" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S85" s="25" t="n">
+      <c r="S85" s="26" t="n">
         <v>-0.200000000000045</v>
       </c>
       <c r="T85" s="8"/>
@@ -46642,16 +46431,16 @@
       <c r="J86" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K86" s="32" t="s">
+      <c r="K86" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L86" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M86" s="25" t="n">
+      <c r="M86" s="42" t="n">
         <v>592</v>
       </c>
-      <c r="N86" s="25" t="n">
+      <c r="N86" s="26" t="n">
         <v>18.5</v>
       </c>
       <c r="O86" s="8" t="s">
@@ -46664,7 +46453,7 @@
       <c r="R86" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S86" s="25" t="n">
+      <c r="S86" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T86" s="8"/>
@@ -46696,16 +46485,16 @@
       <c r="J87" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K87" s="32" t="s">
+      <c r="K87" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L87" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M87" s="25" t="n">
-        <v>329.6</v>
-      </c>
-      <c r="N87" s="25" t="n">
+      <c r="M87" s="42" t="n">
+        <v>345</v>
+      </c>
+      <c r="N87" s="26" t="n">
         <v>10.3</v>
       </c>
       <c r="O87" s="8" t="s">
@@ -46718,7 +46507,7 @@
       <c r="R87" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S87" s="25" t="n">
+      <c r="S87" s="26" t="n">
         <v>15.4</v>
       </c>
       <c r="T87" s="8"/>
@@ -46750,16 +46539,16 @@
       <c r="J88" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K88" s="32" t="s">
+      <c r="K88" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L88" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M88" s="25" t="n">
-        <v>801.6</v>
-      </c>
-      <c r="N88" s="25" t="n">
+      <c r="M88" s="42" t="n">
+        <v>801</v>
+      </c>
+      <c r="N88" s="26" t="n">
         <v>25.05</v>
       </c>
       <c r="O88" s="8" t="s">
@@ -46772,7 +46561,7 @@
       <c r="R88" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S88" s="25" t="n">
+      <c r="S88" s="26" t="n">
         <v>-0.600000000000023</v>
       </c>
       <c r="T88" s="8"/>
@@ -46804,16 +46593,16 @@
       <c r="J89" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K89" s="32" t="s">
+      <c r="K89" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L89" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M89" s="25" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="N89" s="25" t="n">
+      <c r="M89" s="42" t="n">
+        <v>179</v>
+      </c>
+      <c r="N89" s="26" t="n">
         <v>5.6</v>
       </c>
       <c r="O89" s="8" t="s">
@@ -46826,7 +46615,7 @@
       <c r="R89" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S89" s="25" t="n">
+      <c r="S89" s="26" t="n">
         <v>-0.199999999999989</v>
       </c>
       <c r="T89" s="8"/>
@@ -46858,16 +46647,16 @@
       <c r="J90" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K90" s="32" t="s">
+      <c r="K90" s="28" t="s">
         <v>331</v>
       </c>
       <c r="L90" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M90" s="25" t="n">
-        <v>1358.4</v>
-      </c>
-      <c r="N90" s="25" t="n">
+      <c r="M90" s="42" t="n">
+        <v>1358</v>
+      </c>
+      <c r="N90" s="26" t="n">
         <v>42.45</v>
       </c>
       <c r="O90" s="8" t="s">
@@ -46880,7 +46669,7 @@
       <c r="R90" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="S90" s="25" t="n">
+      <c r="S90" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
       <c r="T90" s="8"/>
@@ -46912,16 +46701,16 @@
       <c r="J91" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K91" s="32" t="s">
+      <c r="K91" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L91" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M91" s="25" t="n">
+      <c r="M91" s="42" t="n">
         <v>306</v>
       </c>
-      <c r="N91" s="25" t="n">
+      <c r="N91" s="26" t="n">
         <v>8.5</v>
       </c>
       <c r="O91" s="8" t="s">
@@ -46934,7 +46723,7 @@
       <c r="R91" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S91" s="25" t="n">
+      <c r="S91" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T91" s="8"/>
@@ -46966,16 +46755,16 @@
       <c r="J92" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K92" s="32" t="s">
+      <c r="K92" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L92" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M92" s="25" t="n">
-        <v>716.4</v>
-      </c>
-      <c r="N92" s="25" t="n">
+      <c r="M92" s="42" t="n">
+        <v>716</v>
+      </c>
+      <c r="N92" s="26" t="n">
         <v>19.9</v>
       </c>
       <c r="O92" s="8" t="s">
@@ -46988,7 +46777,7 @@
       <c r="R92" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S92" s="25" t="n">
+      <c r="S92" s="26" t="n">
         <v>-0.399999999999977</v>
       </c>
       <c r="T92" s="8"/>
@@ -47020,16 +46809,16 @@
       <c r="J93" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K93" s="32" t="s">
+      <c r="K93" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L93" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M93" s="25" t="n">
-        <v>428.4</v>
-      </c>
-      <c r="N93" s="25" t="n">
+      <c r="M93" s="42" t="n">
+        <v>428</v>
+      </c>
+      <c r="N93" s="26" t="n">
         <v>11.9</v>
       </c>
       <c r="O93" s="8" t="s">
@@ -47042,7 +46831,7 @@
       <c r="R93" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S93" s="25" t="n">
+      <c r="S93" s="26" t="n">
         <v>-0.400000000000034</v>
       </c>
       <c r="T93" s="8"/>
@@ -47074,16 +46863,16 @@
       <c r="J94" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K94" s="32" t="s">
+      <c r="K94" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L94" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M94" s="25" t="n">
-        <v>251.28</v>
-      </c>
-      <c r="N94" s="25" t="n">
+      <c r="M94" s="42" t="n">
+        <v>251</v>
+      </c>
+      <c r="N94" s="26" t="n">
         <v>6.98</v>
       </c>
       <c r="O94" s="8" t="s">
@@ -47096,7 +46885,7 @@
       <c r="R94" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S94" s="25" t="n">
+      <c r="S94" s="26" t="n">
         <v>-0.28000000000003</v>
       </c>
       <c r="T94" s="8"/>
@@ -47128,16 +46917,16 @@
       <c r="J95" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K95" s="32" t="s">
+      <c r="K95" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L95" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M95" s="25" t="n">
-        <v>435.6</v>
-      </c>
-      <c r="N95" s="25" t="n">
+      <c r="M95" s="42" t="n">
+        <v>436</v>
+      </c>
+      <c r="N95" s="26" t="n">
         <v>12.1</v>
       </c>
       <c r="O95" s="8" t="s">
@@ -47150,7 +46939,7 @@
       <c r="R95" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S95" s="25" t="n">
+      <c r="S95" s="26" t="n">
         <v>0.400000000000034</v>
       </c>
       <c r="T95" s="8"/>
@@ -47182,16 +46971,16 @@
       <c r="J96" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K96" s="32" t="s">
+      <c r="K96" s="28" t="s">
         <v>332</v>
       </c>
       <c r="L96" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M96" s="25" t="n">
+      <c r="M96" s="42" t="n">
         <v>4014</v>
       </c>
-      <c r="N96" s="25" t="n">
+      <c r="N96" s="26" t="n">
         <v>111.5</v>
       </c>
       <c r="O96" s="8" t="s">
@@ -47204,7 +46993,7 @@
       <c r="R96" s="31" t="n">
         <v>36</v>
       </c>
-      <c r="S96" s="25" t="n">
+      <c r="S96" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T96" s="8"/>
@@ -47242,10 +47031,10 @@
       <c r="L97" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M97" s="25" t="n">
+      <c r="M97" s="42" t="n">
         <v>7215</v>
       </c>
-      <c r="N97" s="25" t="n">
+      <c r="N97" s="26" t="n">
         <v>555</v>
       </c>
       <c r="O97" s="8" t="s">
@@ -47258,7 +47047,7 @@
       <c r="R97" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S97" s="25" t="n">
+      <c r="S97" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T97" s="8"/>
@@ -47296,10 +47085,10 @@
       <c r="L98" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M98" s="25" t="n">
-        <v>3802.5</v>
-      </c>
-      <c r="N98" s="25" t="n">
+      <c r="M98" s="42" t="n">
+        <v>3802</v>
+      </c>
+      <c r="N98" s="26" t="n">
         <v>292.5</v>
       </c>
       <c r="O98" s="8" t="s">
@@ -47312,7 +47101,7 @@
       <c r="R98" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S98" s="25" t="n">
+      <c r="S98" s="26" t="n">
         <v>-0.5</v>
       </c>
       <c r="T98" s="8"/>
@@ -47350,10 +47139,10 @@
       <c r="L99" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M99" s="25" t="n">
+      <c r="M99" s="42" t="n">
         <v>2626</v>
       </c>
-      <c r="N99" s="25" t="n">
+      <c r="N99" s="26" t="n">
         <v>202</v>
       </c>
       <c r="O99" s="8" t="s">
@@ -47366,7 +47155,7 @@
       <c r="R99" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S99" s="25" t="n">
+      <c r="S99" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T99" s="8"/>
@@ -47404,10 +47193,10 @@
       <c r="L100" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M100" s="25" t="n">
-        <v>2966.21</v>
-      </c>
-      <c r="N100" s="25" t="n">
+      <c r="M100" s="42" t="n">
+        <v>2966</v>
+      </c>
+      <c r="N100" s="26" t="n">
         <v>228.17</v>
       </c>
       <c r="O100" s="8" t="s">
@@ -47420,7 +47209,7 @@
       <c r="R100" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="S100" s="25" t="n">
+      <c r="S100" s="26" t="n">
         <v>-0.210000000000036</v>
       </c>
       <c r="T100" s="8"/>
@@ -47458,10 +47247,10 @@
       <c r="L101" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M101" s="25" t="n">
-        <v>13637.5</v>
-      </c>
-      <c r="N101" s="25" t="n">
+      <c r="M101" s="42" t="n">
+        <v>13167</v>
+      </c>
+      <c r="N101" s="26" t="n">
         <v>10910</v>
       </c>
       <c r="O101" s="8" t="s">
@@ -47474,7 +47263,7 @@
       <c r="R101" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S101" s="25" t="n">
+      <c r="S101" s="26" t="n">
         <v>-470.5</v>
       </c>
       <c r="T101" s="8"/>
@@ -47512,10 +47301,10 @@
       <c r="L102" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M102" s="25" t="n">
+      <c r="M102" s="42" t="n">
         <v>650</v>
       </c>
-      <c r="N102" s="25" t="n">
+      <c r="N102" s="26" t="n">
         <v>520</v>
       </c>
       <c r="O102" s="8" t="s">
@@ -47528,7 +47317,7 @@
       <c r="R102" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S102" s="25" t="n">
+      <c r="S102" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T102" s="8"/>
@@ -47566,10 +47355,10 @@
       <c r="L103" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M103" s="25" t="n">
-        <v>1868.75</v>
-      </c>
-      <c r="N103" s="25" t="n">
+      <c r="M103" s="42" t="n">
+        <v>1869</v>
+      </c>
+      <c r="N103" s="26" t="n">
         <v>1495</v>
       </c>
       <c r="O103" s="8" t="s">
@@ -47582,7 +47371,7 @@
       <c r="R103" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S103" s="25" t="n">
+      <c r="S103" s="26" t="n">
         <v>0.25</v>
       </c>
       <c r="T103" s="8"/>
@@ -47620,10 +47409,10 @@
       <c r="L104" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M104" s="25" t="n">
+      <c r="M104" s="42" t="n">
         <v>375</v>
       </c>
-      <c r="N104" s="25" t="n">
+      <c r="N104" s="26" t="n">
         <v>300</v>
       </c>
       <c r="O104" s="8" t="s">
@@ -47636,7 +47425,7 @@
       <c r="R104" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S104" s="25" t="n">
+      <c r="S104" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T104" s="8"/>
@@ -47674,10 +47463,10 @@
       <c r="L105" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M105" s="25" t="n">
+      <c r="M105" s="42" t="n">
         <v>1010</v>
       </c>
-      <c r="N105" s="25" t="n">
+      <c r="N105" s="26" t="n">
         <v>808</v>
       </c>
       <c r="O105" s="8" t="s">
@@ -47690,7 +47479,7 @@
       <c r="R105" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S105" s="25" t="n">
+      <c r="S105" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T105" s="8"/>
@@ -47728,10 +47517,10 @@
       <c r="L106" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M106" s="25" t="n">
+      <c r="M106" s="42" t="n">
         <v>2095</v>
       </c>
-      <c r="N106" s="25" t="n">
+      <c r="N106" s="26" t="n">
         <v>1676</v>
       </c>
       <c r="O106" s="8" t="s">
@@ -47744,7 +47533,7 @@
       <c r="R106" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S106" s="25" t="n">
+      <c r="S106" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="8"/>
@@ -47782,10 +47571,10 @@
       <c r="L107" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M107" s="25" t="n">
-        <v>2443.75</v>
-      </c>
-      <c r="N107" s="25" t="n">
+      <c r="M107" s="42" t="n">
+        <v>2444</v>
+      </c>
+      <c r="N107" s="26" t="n">
         <v>1955</v>
       </c>
       <c r="O107" s="8" t="s">
@@ -47798,7 +47587,7 @@
       <c r="R107" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S107" s="25" t="n">
+      <c r="S107" s="26" t="n">
         <v>0.25</v>
       </c>
       <c r="T107" s="8"/>
@@ -47836,10 +47625,10 @@
       <c r="L108" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M108" s="25" t="n">
+      <c r="M108" s="42" t="n">
         <v>1750</v>
       </c>
-      <c r="N108" s="25" t="n">
+      <c r="N108" s="26" t="n">
         <v>1400</v>
       </c>
       <c r="O108" s="8" t="s">
@@ -47852,7 +47641,7 @@
       <c r="R108" s="31" t="n">
         <v>1.25</v>
       </c>
-      <c r="S108" s="25" t="n">
+      <c r="S108" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T108" s="8"/>
@@ -47890,10 +47679,10 @@
       <c r="L109" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M109" s="25" t="n">
-        <v>27475.2</v>
-      </c>
-      <c r="N109" s="25" t="n">
+      <c r="M109" s="42" t="n">
+        <v>27475</v>
+      </c>
+      <c r="N109" s="26" t="n">
         <v>30528</v>
       </c>
       <c r="O109" s="8" t="s">
@@ -47906,7 +47695,7 @@
       <c r="R109" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S109" s="25" t="n">
+      <c r="S109" s="26" t="n">
         <v>-0.200000000000728</v>
       </c>
       <c r="T109" s="8" t="s">
@@ -47946,10 +47735,10 @@
       <c r="L110" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M110" s="25" t="n">
-        <v>1202.4</v>
-      </c>
-      <c r="N110" s="25" t="n">
+      <c r="M110" s="42" t="n">
+        <v>1202</v>
+      </c>
+      <c r="N110" s="26" t="n">
         <v>1336</v>
       </c>
       <c r="O110" s="8" t="s">
@@ -47962,7 +47751,7 @@
       <c r="R110" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S110" s="25" t="n">
+      <c r="S110" s="26" t="n">
         <v>-0.400000000000091</v>
       </c>
       <c r="T110" s="8" t="s">
@@ -48002,10 +47791,10 @@
       <c r="L111" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M111" s="25" t="n">
-        <v>20059.2</v>
-      </c>
-      <c r="N111" s="25" t="n">
+      <c r="M111" s="42" t="n">
+        <v>20659</v>
+      </c>
+      <c r="N111" s="26" t="n">
         <v>22288</v>
       </c>
       <c r="O111" s="8" t="s">
@@ -48018,7 +47807,7 @@
       <c r="R111" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S111" s="25" t="n">
+      <c r="S111" s="26" t="n">
         <v>599.799999999999</v>
       </c>
       <c r="T111" s="8" t="s">
@@ -48058,10 +47847,10 @@
       <c r="L112" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M112" s="25" t="n">
-        <v>1310.4</v>
-      </c>
-      <c r="N112" s="25" t="n">
+      <c r="M112" s="42" t="n">
+        <v>1309</v>
+      </c>
+      <c r="N112" s="26" t="n">
         <v>1456</v>
       </c>
       <c r="O112" s="8" t="s">
@@ -48074,7 +47863,7 @@
       <c r="R112" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="S112" s="25" t="n">
+      <c r="S112" s="26" t="n">
         <v>-1.40000000000009</v>
       </c>
       <c r="T112" s="8" t="s">
@@ -48114,10 +47903,10 @@
       <c r="L113" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M113" s="25" t="n">
-        <v>231692.8</v>
-      </c>
-      <c r="N113" s="25" t="n">
+      <c r="M113" s="42" t="n">
+        <v>231693</v>
+      </c>
+      <c r="N113" s="26" t="n">
         <v>289616</v>
       </c>
       <c r="O113" s="8" t="s">
@@ -48130,7 +47919,7 @@
       <c r="R113" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S113" s="25" t="n">
+      <c r="S113" s="26" t="n">
         <v>0.199999999982538</v>
       </c>
       <c r="T113" s="8" t="s">
@@ -48170,10 +47959,10 @@
       <c r="L114" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M114" s="25" t="n">
+      <c r="M114" s="42" t="n">
         <v>320</v>
       </c>
-      <c r="N114" s="25" t="n">
+      <c r="N114" s="26" t="n">
         <v>400</v>
       </c>
       <c r="O114" s="8" t="s">
@@ -48186,7 +47975,7 @@
       <c r="R114" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S114" s="25" t="n">
+      <c r="S114" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T114" s="8" t="s">
@@ -48226,10 +48015,10 @@
       <c r="L115" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M115" s="25" t="n">
-        <v>10336</v>
-      </c>
-      <c r="N115" s="25" t="n">
+      <c r="M115" s="42" t="n">
+        <v>10316</v>
+      </c>
+      <c r="N115" s="26" t="n">
         <v>12920</v>
       </c>
       <c r="O115" s="8" t="s">
@@ -48242,7 +48031,7 @@
       <c r="R115" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S115" s="25" t="n">
+      <c r="S115" s="26" t="n">
         <v>-20</v>
       </c>
       <c r="T115" s="8" t="s">
@@ -48282,10 +48071,10 @@
       <c r="L116" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M116" s="25" t="n">
-        <v>6611.2</v>
-      </c>
-      <c r="N116" s="25" t="n">
+      <c r="M116" s="42" t="n">
+        <v>6611</v>
+      </c>
+      <c r="N116" s="26" t="n">
         <v>8264</v>
       </c>
       <c r="O116" s="8" t="s">
@@ -48298,7 +48087,7 @@
       <c r="R116" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S116" s="25" t="n">
+      <c r="S116" s="26" t="n">
         <v>-0.200000000000728</v>
       </c>
       <c r="T116" s="8" t="s">
@@ -48338,10 +48127,10 @@
       <c r="L117" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M117" s="25" t="n">
-        <v>9913.6</v>
-      </c>
-      <c r="N117" s="25" t="n">
+      <c r="M117" s="42" t="n">
+        <v>9913</v>
+      </c>
+      <c r="N117" s="26" t="n">
         <v>12392</v>
       </c>
       <c r="O117" s="8" t="s">
@@ -48354,7 +48143,7 @@
       <c r="R117" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S117" s="25" t="n">
+      <c r="S117" s="26" t="n">
         <v>-0.600000000000364</v>
       </c>
       <c r="T117" s="8" t="s">
@@ -48394,10 +48183,10 @@
       <c r="L118" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M118" s="25" t="n">
-        <v>116780.8</v>
-      </c>
-      <c r="N118" s="25" t="n">
+      <c r="M118" s="42" t="n">
+        <v>116780</v>
+      </c>
+      <c r="N118" s="26" t="n">
         <v>145976</v>
       </c>
       <c r="O118" s="8" t="s">
@@ -48410,7 +48199,7 @@
       <c r="R118" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S118" s="25" t="n">
+      <c r="S118" s="26" t="n">
         <v>-0.80000000000291</v>
       </c>
       <c r="T118" s="8" t="s">
@@ -48450,10 +48239,10 @@
       <c r="L119" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M119" s="25" t="n">
+      <c r="M119" s="42" t="n">
         <v>992</v>
       </c>
-      <c r="N119" s="25" t="n">
+      <c r="N119" s="26" t="n">
         <v>1240</v>
       </c>
       <c r="O119" s="8" t="s">
@@ -48466,7 +48255,7 @@
       <c r="R119" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="S119" s="25" t="n">
+      <c r="S119" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T119" s="8" t="s">
@@ -48506,10 +48295,10 @@
       <c r="L120" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M120" s="25" t="n">
+      <c r="M120" s="42" t="n">
         <v>11208</v>
       </c>
-      <c r="N120" s="25" t="n">
+      <c r="N120" s="26" t="n">
         <v>22416</v>
       </c>
       <c r="O120" s="8" t="s">
@@ -48522,7 +48311,7 @@
       <c r="R120" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S120" s="25" t="n">
+      <c r="S120" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T120" s="8" t="s">
@@ -48562,10 +48351,10 @@
       <c r="L121" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M121" s="25" t="n">
+      <c r="M121" s="42" t="n">
         <v>7476</v>
       </c>
-      <c r="N121" s="25" t="n">
+      <c r="N121" s="26" t="n">
         <v>14952</v>
       </c>
       <c r="O121" s="8" t="s">
@@ -48578,7 +48367,7 @@
       <c r="R121" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S121" s="25" t="n">
+      <c r="S121" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T121" s="8" t="s">
@@ -48618,10 +48407,10 @@
       <c r="L122" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M122" s="25" t="n">
+      <c r="M122" s="42" t="n">
         <v>12032</v>
       </c>
-      <c r="N122" s="25" t="n">
+      <c r="N122" s="26" t="n">
         <v>24064</v>
       </c>
       <c r="O122" s="8" t="s">
@@ -48634,7 +48423,7 @@
       <c r="R122" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S122" s="25" t="n">
+      <c r="S122" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T122" s="8" t="s">
@@ -48674,10 +48463,10 @@
       <c r="L123" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M123" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" s="25" t="n">
+      <c r="M123" s="42" t="n">
+        <v>2288</v>
+      </c>
+      <c r="N123" s="26" t="n">
         <v>4576</v>
       </c>
       <c r="O123" s="8" t="s">
@@ -48690,7 +48479,7 @@
       <c r="R123" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S123" s="25" t="n">
+      <c r="S123" s="26" t="n">
         <v>2288</v>
       </c>
       <c r="T123" s="8" t="s">
@@ -48730,10 +48519,10 @@
       <c r="L124" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M124" s="25" t="n">
+      <c r="M124" s="42" t="n">
         <v>406372</v>
       </c>
-      <c r="N124" s="25" t="n">
+      <c r="N124" s="26" t="n">
         <v>812744</v>
       </c>
       <c r="O124" s="8" t="s">
@@ -48746,7 +48535,7 @@
       <c r="R124" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S124" s="25" t="n">
+      <c r="S124" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T124" s="8" t="s">
@@ -48786,10 +48575,10 @@
       <c r="L125" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M125" s="25" t="n">
+      <c r="M125" s="42" t="n">
         <v>21600</v>
       </c>
-      <c r="N125" s="25" t="n">
+      <c r="N125" s="26" t="n">
         <v>43200</v>
       </c>
       <c r="O125" s="8" t="s">
@@ -48802,7 +48591,7 @@
       <c r="R125" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S125" s="25" t="n">
+      <c r="S125" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T125" s="8" t="s">
@@ -48842,10 +48631,10 @@
       <c r="L126" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M126" s="25" t="n">
+      <c r="M126" s="42" t="n">
         <v>91376</v>
       </c>
-      <c r="N126" s="25" t="n">
+      <c r="N126" s="26" t="n">
         <v>182752</v>
       </c>
       <c r="O126" s="8" t="s">
@@ -48858,7 +48647,7 @@
       <c r="R126" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S126" s="25" t="n">
+      <c r="S126" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T126" s="8" t="s">
@@ -48898,10 +48687,10 @@
       <c r="L127" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M127" s="25" t="n">
+      <c r="M127" s="42" t="n">
         <v>73040</v>
       </c>
-      <c r="N127" s="25" t="n">
+      <c r="N127" s="26" t="n">
         <v>146080</v>
       </c>
       <c r="O127" s="8" t="s">
@@ -48914,7 +48703,7 @@
       <c r="R127" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S127" s="25" t="n">
+      <c r="S127" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T127" s="8" t="s">
@@ -48954,10 +48743,10 @@
       <c r="L128" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M128" s="25" t="n">
+      <c r="M128" s="42" t="n">
         <v>175024</v>
       </c>
-      <c r="N128" s="25" t="n">
+      <c r="N128" s="26" t="n">
         <v>350048</v>
       </c>
       <c r="O128" s="8" t="s">
@@ -48970,7 +48759,7 @@
       <c r="R128" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S128" s="25" t="n">
+      <c r="S128" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T128" s="8" t="s">
@@ -49010,10 +48799,10 @@
       <c r="L129" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M129" s="25" t="n">
+      <c r="M129" s="42" t="n">
         <v>97572</v>
       </c>
-      <c r="N129" s="25" t="n">
+      <c r="N129" s="26" t="n">
         <v>195144</v>
       </c>
       <c r="O129" s="8" t="s">
@@ -49026,7 +48815,7 @@
       <c r="R129" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S129" s="25" t="n">
+      <c r="S129" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T129" s="8" t="s">
@@ -49066,10 +48855,10 @@
       <c r="L130" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M130" s="25" t="n">
+      <c r="M130" s="42" t="n">
         <v>39560</v>
       </c>
-      <c r="N130" s="25" t="n">
+      <c r="N130" s="26" t="n">
         <v>79120</v>
       </c>
       <c r="O130" s="8" t="s">
@@ -49082,7 +48871,7 @@
       <c r="R130" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S130" s="25" t="n">
+      <c r="S130" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T130" s="8" t="s">
@@ -49122,10 +48911,10 @@
       <c r="L131" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M131" s="25" t="n">
+      <c r="M131" s="42" t="n">
         <v>483680</v>
       </c>
-      <c r="N131" s="25" t="n">
+      <c r="N131" s="26" t="n">
         <v>967360</v>
       </c>
       <c r="O131" s="8" t="s">
@@ -49138,7 +48927,7 @@
       <c r="R131" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S131" s="25" t="n">
+      <c r="S131" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T131" s="8" t="s">
@@ -49178,10 +48967,10 @@
       <c r="L132" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M132" s="25" t="n">
+      <c r="M132" s="42" t="n">
         <v>143556</v>
       </c>
-      <c r="N132" s="25" t="n">
+      <c r="N132" s="26" t="n">
         <v>287112</v>
       </c>
       <c r="O132" s="8" t="s">
@@ -49194,7 +48983,7 @@
       <c r="R132" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S132" s="25" t="n">
+      <c r="S132" s="26" t="n">
         <v>0</v>
       </c>
       <c r="T132" s="8" t="s">
@@ -49234,10 +49023,10 @@
       <c r="L133" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="M133" s="25" t="n">
-        <v>4340</v>
-      </c>
-      <c r="N133" s="25" t="n">
+      <c r="M133" s="42" t="n">
+        <v>5208</v>
+      </c>
+      <c r="N133" s="26" t="n">
         <v>8680</v>
       </c>
       <c r="O133" s="8" t="s">
@@ -49250,7 +49039,7 @@
       <c r="R133" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S133" s="25" t="n">
+      <c r="S133" s="26" t="n">
         <v>868</v>
       </c>
       <c r="T133" s="8" t="s">
@@ -49290,10 +49079,10 @@
       <c r="L134" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M134" s="25" t="n">
-        <v>189664</v>
-      </c>
-      <c r="N134" s="25" t="n">
+      <c r="M134" s="42" t="n">
+        <v>189597</v>
+      </c>
+      <c r="N134" s="26" t="n">
         <v>379328</v>
       </c>
       <c r="O134" s="8" t="s">
@@ -49306,7 +49095,7 @@
       <c r="R134" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S134" s="25" t="n">
+      <c r="S134" s="26" t="n">
         <v>-67</v>
       </c>
       <c r="T134" s="8" t="s">
@@ -49346,10 +49135,10 @@
       <c r="L135" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M135" s="25" t="n">
-        <v>49960</v>
-      </c>
-      <c r="N135" s="25" t="n">
+      <c r="M135" s="42" t="n">
+        <v>49952</v>
+      </c>
+      <c r="N135" s="26" t="n">
         <v>99920</v>
       </c>
       <c r="O135" s="8" t="s">
@@ -49362,7 +49151,7 @@
       <c r="R135" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S135" s="25" t="n">
+      <c r="S135" s="26" t="n">
         <v>-8</v>
       </c>
       <c r="T135" s="8" t="s">
@@ -49402,10 +49191,10 @@
       <c r="L136" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M136" s="25" t="n">
-        <v>3476</v>
-      </c>
-      <c r="N136" s="25" t="n">
+      <c r="M136" s="42" t="n">
+        <v>3471</v>
+      </c>
+      <c r="N136" s="26" t="n">
         <v>6952</v>
       </c>
       <c r="O136" s="8" t="s">
@@ -49418,7 +49207,7 @@
       <c r="R136" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S136" s="25" t="n">
+      <c r="S136" s="26" t="n">
         <v>-5</v>
       </c>
       <c r="T136" s="8" t="s">
@@ -49458,10 +49247,10 @@
       <c r="L137" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M137" s="25" t="n">
-        <v>3472</v>
-      </c>
-      <c r="N137" s="25" t="n">
+      <c r="M137" s="42" t="n">
+        <v>3426</v>
+      </c>
+      <c r="N137" s="26" t="n">
         <v>6944</v>
       </c>
       <c r="O137" s="8" t="s">
@@ -49474,7 +49263,7 @@
       <c r="R137" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S137" s="25" t="n">
+      <c r="S137" s="26" t="n">
         <v>-46</v>
       </c>
       <c r="T137" s="8" t="s">
@@ -49514,10 +49303,10 @@
       <c r="L138" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M138" s="25" t="n">
-        <v>28956</v>
-      </c>
-      <c r="N138" s="25" t="n">
+      <c r="M138" s="42" t="n">
+        <v>28947</v>
+      </c>
+      <c r="N138" s="26" t="n">
         <v>57912</v>
       </c>
       <c r="O138" s="8" t="s">
@@ -49530,7 +49319,7 @@
       <c r="R138" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S138" s="25" t="n">
+      <c r="S138" s="26" t="n">
         <v>-9</v>
       </c>
       <c r="T138" s="8" t="s">
@@ -49570,10 +49359,10 @@
       <c r="L139" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M139" s="25" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N139" s="25" t="n">
+      <c r="M139" s="42" t="n">
+        <v>8600</v>
+      </c>
+      <c r="N139" s="26" t="n">
         <v>16000</v>
       </c>
       <c r="O139" s="8" t="s">
@@ -49586,7 +49375,7 @@
       <c r="R139" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S139" s="25" t="n">
+      <c r="S139" s="26" t="n">
         <v>600</v>
       </c>
       <c r="T139" s="8" t="s">
@@ -49626,10 +49415,10 @@
       <c r="L140" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M140" s="25" t="n">
-        <v>23953</v>
-      </c>
-      <c r="N140" s="25" t="n">
+      <c r="M140" s="42" t="n">
+        <v>23942</v>
+      </c>
+      <c r="N140" s="26" t="n">
         <v>47906</v>
       </c>
       <c r="O140" s="8" t="s">
@@ -49642,7 +49431,7 @@
       <c r="R140" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S140" s="25" t="n">
+      <c r="S140" s="26" t="n">
         <v>-11</v>
       </c>
       <c r="T140" s="8" t="s">
@@ -49682,10 +49471,10 @@
       <c r="L141" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M141" s="25" t="n">
-        <v>3956</v>
-      </c>
-      <c r="N141" s="25" t="n">
+      <c r="M141" s="42" t="n">
+        <v>4047</v>
+      </c>
+      <c r="N141" s="26" t="n">
         <v>7912</v>
       </c>
       <c r="O141" s="8" t="s">
@@ -49698,7 +49487,7 @@
       <c r="R141" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S141" s="25" t="n">
+      <c r="S141" s="26" t="n">
         <v>91</v>
       </c>
       <c r="T141" s="8" t="s">
@@ -49738,10 +49527,10 @@
       <c r="L142" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M142" s="25" t="n">
-        <v>14076</v>
-      </c>
-      <c r="N142" s="25" t="n">
+      <c r="M142" s="42" t="n">
+        <v>13991</v>
+      </c>
+      <c r="N142" s="26" t="n">
         <v>28152</v>
       </c>
       <c r="O142" s="8" t="s">
@@ -49754,7 +49543,7 @@
       <c r="R142" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="S142" s="25" t="n">
+      <c r="S142" s="26" t="n">
         <v>-85</v>
       </c>
       <c r="T142" s="8" t="s">
@@ -49794,10 +49583,10 @@
       <c r="L143" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M143" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" s="25"/>
+      <c r="M143" s="42" t="n">
+        <v>1290</v>
+      </c>
+      <c r="N143" s="26"/>
       <c r="O143" s="8" t="s">
         <v>59</v>
       </c>
@@ -49806,7 +49595,7 @@
       <c r="R143" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S143" s="25" t="n">
+      <c r="S143" s="26" t="n">
         <v>1290</v>
       </c>
       <c r="T143" s="8"/>
@@ -49844,10 +49633,10 @@
       <c r="L144" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M144" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" s="25"/>
+      <c r="M144" s="42" t="n">
+        <v>360</v>
+      </c>
+      <c r="N144" s="26"/>
       <c r="O144" s="8" t="s">
         <v>59</v>
       </c>
@@ -49856,7 +49645,7 @@
       <c r="R144" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S144" s="25" t="n">
+      <c r="S144" s="26" t="n">
         <v>360</v>
       </c>
       <c r="T144" s="8"/>
@@ -49894,10 +49683,10 @@
       <c r="L145" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M145" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" s="25"/>
+      <c r="M145" s="42" t="n">
+        <v>6037</v>
+      </c>
+      <c r="N145" s="26"/>
       <c r="O145" s="8" t="s">
         <v>59</v>
       </c>
@@ -49906,7 +49695,7 @@
       <c r="R145" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S145" s="25" t="n">
+      <c r="S145" s="26" t="n">
         <v>6037</v>
       </c>
       <c r="T145" s="8"/>
@@ -49944,10 +49733,10 @@
       <c r="L146" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M146" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" s="25"/>
+      <c r="M146" s="42" t="n">
+        <v>1829</v>
+      </c>
+      <c r="N146" s="26"/>
       <c r="O146" s="8" t="s">
         <v>59</v>
       </c>
@@ -49956,7 +49745,7 @@
       <c r="R146" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S146" s="25" t="n">
+      <c r="S146" s="26" t="n">
         <v>1829</v>
       </c>
       <c r="T146" s="8"/>
@@ -49994,10 +49783,10 @@
       <c r="L147" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M147" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" s="25"/>
+      <c r="M147" s="42" t="n">
+        <v>958</v>
+      </c>
+      <c r="N147" s="26"/>
       <c r="O147" s="8" t="s">
         <v>59</v>
       </c>
@@ -50006,7 +49795,7 @@
       <c r="R147" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S147" s="25" t="n">
+      <c r="S147" s="26" t="n">
         <v>958</v>
       </c>
       <c r="T147" s="8"/>
@@ -50044,10 +49833,10 @@
       <c r="L148" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M148" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" s="25"/>
+      <c r="M148" s="42" t="n">
+        <v>360</v>
+      </c>
+      <c r="N148" s="26"/>
       <c r="O148" s="8" t="s">
         <v>59</v>
       </c>
@@ -50056,7 +49845,7 @@
       <c r="R148" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S148" s="25" t="n">
+      <c r="S148" s="26" t="n">
         <v>360</v>
       </c>
       <c r="T148" s="8"/>
@@ -50094,10 +49883,10 @@
       <c r="L149" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M149" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" s="25"/>
+      <c r="M149" s="42" t="n">
+        <v>3782</v>
+      </c>
+      <c r="N149" s="26"/>
       <c r="O149" s="8" t="s">
         <v>59</v>
       </c>
@@ -50106,7 +49895,7 @@
       <c r="R149" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S149" s="25" t="n">
+      <c r="S149" s="26" t="n">
         <v>3782</v>
       </c>
       <c r="T149" s="8"/>
@@ -50144,10 +49933,10 @@
       <c r="L150" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M150" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" s="25"/>
+      <c r="M150" s="42" t="n">
+        <v>225</v>
+      </c>
+      <c r="N150" s="26"/>
       <c r="O150" s="8" t="s">
         <v>59</v>
       </c>
@@ -50156,7 +49945,7 @@
       <c r="R150" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S150" s="25" t="n">
+      <c r="S150" s="26" t="n">
         <v>225</v>
       </c>
       <c r="T150" s="8"/>
@@ -50194,10 +49983,10 @@
       <c r="L151" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M151" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N151" s="25"/>
+      <c r="M151" s="42" t="n">
+        <v>699</v>
+      </c>
+      <c r="N151" s="26"/>
       <c r="O151" s="8" t="s">
         <v>59</v>
       </c>
@@ -50206,7 +49995,7 @@
       <c r="R151" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="S151" s="25" t="n">
+      <c r="S151" s="26" t="n">
         <v>699</v>
       </c>
       <c r="T151" s="8"/>
